--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/40/Output_2_30.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/40/Output_2_30.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2323852.323538812</v>
+        <v>2285815.707357536</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>421727.3537779179</v>
+        <v>421727.3537779185</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>7956703.63648181</v>
+        <v>7956703.636481811</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7319204.521089052</v>
+        <v>7319204.521089053</v>
       </c>
     </row>
     <row r="11">
@@ -667,22 +667,22 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>274.2838073416025</v>
       </c>
       <c r="F2" t="n">
-        <v>7.293863480540836</v>
+        <v>274.2838073416025</v>
       </c>
       <c r="G2" t="n">
-        <v>14.85476540383092</v>
+        <v>274.2838073416025</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>241.5891775064833</v>
       </c>
       <c r="I2" t="n">
-        <v>205.224307868124</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0.6592771345624158</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -706,10 +706,10 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>141.8508227008771</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>205.8649517235392</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -721,13 +721,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>214.4088038782139</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>274.2838073416025</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -737,7 +737,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>20.81774400304813</v>
+        <v>20.07867728478316</v>
       </c>
       <c r="C3" t="n">
         <v>171.025583927401</v>
@@ -746,7 +746,7 @@
         <v>146.1124235746456</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>156.0334337071738</v>
       </c>
       <c r="F3" t="n">
         <v>143.5062320835493</v>
@@ -785,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>94.69497976109122</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -800,7 +800,7 @@
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>249.98934675</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
         <v>0</v>
@@ -870,16 +870,16 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
+        <v>0</v>
+      </c>
+      <c r="U4" t="n">
+        <v>0</v>
+      </c>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="n">
         <v>178.9131266416084</v>
-      </c>
-      <c r="U4" t="n">
-        <v>0</v>
-      </c>
-      <c r="V4" t="n">
-        <v>0</v>
-      </c>
-      <c r="W4" t="n">
-        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -895,7 +895,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>274.2838073416025</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -904,13 +904,13 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>153.3024450198386</v>
+        <v>167.4979332891071</v>
       </c>
       <c r="F5" t="n">
         <v>274.2838073416025</v>
       </c>
       <c r="G5" t="n">
-        <v>14.85476540383092</v>
+        <v>274.2838073416025</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -919,7 +919,7 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>0.6592771345624158</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -977,25 +977,25 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>53.89050993362028</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>146.1124235746456</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>156.0334337071738</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>143.5062320835493</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>136.0232102050423</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>110.4625155221328</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>86.50354346547167</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,13 +1022,13 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>94.69497976109122</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>168.9616139056444</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>198.3825319082687</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
         <v>0</v>
@@ -1040,10 +1040,10 @@
         <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>166.8215914980454</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>203.671151418586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1135,7 +1135,7 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>274.2838073416025</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>274.2838073416025</v>
@@ -1144,13 +1144,13 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>7.293863480540836</v>
+        <v>274.2838073416025</v>
       </c>
       <c r="G8" t="n">
-        <v>14.85476540383092</v>
+        <v>240.9299003719209</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>274.2838073416025</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1180,7 +1180,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>141.8508227008771</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -1192,7 +1192,7 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>76.930448786672</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -1201,7 +1201,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>274.2838073416025</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1211,16 +1211,16 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>165.3721256103448</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>171.025583927401</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>146.1124235746456</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>100.0323886292443</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
@@ -1265,22 +1265,22 @@
         <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>181.6612946870253</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>224.6571770672012</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>231.9087310396551</v>
       </c>
       <c r="W9" t="n">
         <v>249.98934675</v>
       </c>
       <c r="X9" t="n">
-        <v>204.4616296084783</v>
+        <v>0</v>
       </c>
       <c r="Y9" t="n">
-        <v>203.671151418586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -1305,7 +1305,7 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>167.8895889301081</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1317,7 +1317,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>11.02353771150029</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -1356,7 +1356,7 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>178.9131266416084</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1369,22 +1369,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>29.24445913795752</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>366.9850956789426</v>
       </c>
       <c r="D11" t="n">
-        <v>356.6047327545984</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>407.2938634805408</v>
       </c>
       <c r="G11" t="n">
-        <v>413.6097194764729</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>325.3930767845979</v>
@@ -1432,13 +1432,13 @@
         <v>328.5332215225193</v>
       </c>
       <c r="W11" t="n">
-        <v>49.13443868643588</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>370.8615991311694</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>386.6870717512358</v>
       </c>
     </row>
     <row r="12">
@@ -1460,16 +1460,16 @@
         <v>156.0334337071738</v>
       </c>
       <c r="F12" t="n">
-        <v>61.81771630496194</v>
+        <v>0</v>
       </c>
       <c r="G12" t="n">
         <v>135.3570519053243</v>
       </c>
       <c r="H12" t="n">
-        <v>104.0288287853823</v>
+        <v>102.2787150142871</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>63.56783007605712</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>110.6600380757662</v>
+        <v>68.41790231683015</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -1536,10 +1536,10 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.9746241731992</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>146.1590214098045</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -1551,7 +1551,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>49.35397375491781</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -1584,7 +1584,7 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.0218075870219</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -1606,25 +1606,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>383.716409991395</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>190.2757276363059</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>356.6047327545984</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>383.1180357552875</v>
       </c>
       <c r="F14" t="n">
-        <v>407.2938634805408</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>413.6097194764729</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>325.3930767845979</v>
+        <v>301.1148571774942</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1654,28 +1654,28 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>63.64170646647294</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>177.493467653868</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>217.5149286494106</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>251.3781599023558</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>328.5332215225193</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>350.5301170005546</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>386.6870717512358</v>
       </c>
     </row>
     <row r="15">
@@ -1694,7 +1694,7 @@
         <v>146.1124235746456</v>
       </c>
       <c r="E15" t="n">
-        <v>156.0334337071738</v>
+        <v>114.8059166379117</v>
       </c>
       <c r="F15" t="n">
         <v>143.5062320835493</v>
@@ -1703,7 +1703,7 @@
         <v>135.3570519053243</v>
       </c>
       <c r="H15" t="n">
-        <v>104.0288287853823</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
         <v>63.56783007605712</v>
@@ -1751,7 +1751,7 @@
         <v>249.98934675</v>
       </c>
       <c r="X15" t="n">
-        <v>59.20528375383371</v>
+        <v>204.4616296084783</v>
       </c>
       <c r="Y15" t="n">
         <v>203.671151418586</v>
@@ -1767,7 +1767,7 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.3365529312023</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -1812,10 +1812,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>148.2796428708918</v>
       </c>
       <c r="S16" t="n">
-        <v>212.6245410698995</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -1827,7 +1827,7 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>123.8960088696167</v>
+        <v>20.90435413742196</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -1846,25 +1846,25 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>366.9850956789426</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>356.6047327545984</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>55.20905444047958</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>413.6097194764729</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>325.3930767845979</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>157.2246747536534</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1900,7 +1900,7 @@
         <v>217.5149286494106</v>
       </c>
       <c r="U17" t="n">
-        <v>251.3781599023558</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
         <v>328.5332215225193</v>
@@ -1909,7 +1909,7 @@
         <v>350.5301170005546</v>
       </c>
       <c r="X17" t="n">
-        <v>347.3301362504765</v>
+        <v>370.8615991311694</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
@@ -1925,7 +1925,7 @@
         <v>165.3721256103448</v>
       </c>
       <c r="C18" t="n">
-        <v>25.76923807275637</v>
+        <v>171.025583927401</v>
       </c>
       <c r="D18" t="n">
         <v>146.1124235746456</v>
@@ -1991,7 +1991,7 @@
         <v>204.4616296084783</v>
       </c>
       <c r="Y18" t="n">
-        <v>203.671151418586</v>
+        <v>58.41480556394149</v>
       </c>
     </row>
     <row r="19">
@@ -2001,7 +2001,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>180.0836914906838</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -2013,7 +2013,7 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>146.1590214098045</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -2022,7 +2022,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>136.9633875020681</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2055,22 +2055,22 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>225.9462130081922</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.9363510669392</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>143.6597934514067</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>159.3362571239817</v>
       </c>
     </row>
     <row r="20">
@@ -2083,16 +2083,16 @@
         <v>383.716409991395</v>
       </c>
       <c r="C20" t="n">
-        <v>366.9850956789426</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
         <v>356.6047327545984</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>383.1180357552875</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>407.2938634805408</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
@@ -2131,22 +2131,22 @@
         <v>63.64170646647294</v>
       </c>
       <c r="S20" t="n">
-        <v>177.493467653868</v>
+        <v>108.0881465484991</v>
       </c>
       <c r="T20" t="n">
-        <v>217.5149286494106</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>251.3781599023558</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>255.9899930309198</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>370.8615991311694</v>
       </c>
       <c r="Y20" t="n">
         <v>386.6870717512358</v>
@@ -2180,7 +2180,7 @@
         <v>104.0288287853823</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>63.56783007605712</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2219,13 +2219,13 @@
         <v>224.6133508632724</v>
       </c>
       <c r="V21" t="n">
-        <v>231.9087310396551</v>
+        <v>86.65238518501074</v>
       </c>
       <c r="W21" t="n">
         <v>249.98934675</v>
       </c>
       <c r="X21" t="n">
-        <v>122.7731138298909</v>
+        <v>204.4616296084783</v>
       </c>
       <c r="Y21" t="n">
         <v>203.671151418586</v>
@@ -2238,7 +2238,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>180.0836914906838</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -2253,10 +2253,10 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>167.3311041893321</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>156.6686349500177</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2286,13 +2286,13 @@
         <v>32.99521853687121</v>
       </c>
       <c r="R22" t="n">
-        <v>148.2796428708918</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>225.9462130081922</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -2301,13 +2301,13 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>85.46370835963326</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>215.3212831105828</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2323,19 +2323,19 @@
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>356.6047327545984</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>383.1180357552875</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>407.2938634805408</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>413.6097194764729</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>325.3930767845979</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2365,10 +2365,10 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>63.64170646647294</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>177.493467653868</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
         <v>217.5149286494106</v>
@@ -2377,16 +2377,16 @@
         <v>251.3781599023558</v>
       </c>
       <c r="V23" t="n">
-        <v>328.5332215225193</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
         <v>350.5301170005546</v>
       </c>
       <c r="X23" t="n">
-        <v>331.1971961741317</v>
+        <v>370.8615991311694</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>123.4301014540969</v>
       </c>
     </row>
     <row r="24">
@@ -2405,16 +2405,16 @@
         <v>146.1124235746456</v>
       </c>
       <c r="E24" t="n">
-        <v>114.8059166379117</v>
+        <v>156.0334337071738</v>
       </c>
       <c r="F24" t="n">
-        <v>143.5062320835493</v>
+        <v>0</v>
       </c>
       <c r="G24" t="n">
         <v>135.3570519053243</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>104.0288287853823</v>
       </c>
       <c r="I24" t="n">
         <v>63.56783007605712</v>
@@ -2444,7 +2444,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>53.33473024000174</v>
+        <v>51.58461646890643</v>
       </c>
       <c r="S24" t="n">
         <v>156.5880156630749</v>
@@ -2475,10 +2475,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>180.0836914906838</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.3365529312023</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -2493,7 +2493,7 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>156.6686349500177</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2520,16 +2520,16 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>32.99521853687121</v>
+        <v>0</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>144.8522521137065</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>225.9462130081922</v>
+        <v>118.4534781546342</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -2544,7 +2544,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.7486738677682</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2554,7 +2554,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>383.716409991395</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
         <v>366.9850956789426</v>
@@ -2563,19 +2563,19 @@
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>383.1180357552875</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>407.2938634805408</v>
       </c>
       <c r="G26" t="n">
-        <v>329.2753512473848</v>
+        <v>413.6097194764729</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>325.3930767845979</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>157.2246747536534</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2608,22 +2608,22 @@
         <v>177.493467653868</v>
       </c>
       <c r="T26" t="n">
-        <v>217.5149286494106</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>251.3781599023558</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>350.5301170005546</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>225.3245962998868</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>386.6870717512358</v>
       </c>
     </row>
     <row r="27">
@@ -2645,13 +2645,13 @@
         <v>156.0334337071738</v>
       </c>
       <c r="F27" t="n">
-        <v>102.2787150142871</v>
+        <v>143.5062320835493</v>
       </c>
       <c r="G27" t="n">
         <v>135.3570519053243</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>104.0288287853823</v>
       </c>
       <c r="I27" t="n">
         <v>63.56783007605712</v>
@@ -2684,7 +2684,7 @@
         <v>53.33473024000174</v>
       </c>
       <c r="S27" t="n">
-        <v>156.5880156630749</v>
+        <v>11.33166980843018</v>
       </c>
       <c r="T27" t="n">
         <v>195.6974464808964</v>
@@ -2712,7 +2712,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>155.1749192313595</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -2724,7 +2724,7 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>117.7011067713544</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -2757,10 +2757,10 @@
         <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>32.99521853687121</v>
+        <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>148.2796428708918</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -2781,7 +2781,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.7486738677682</v>
       </c>
     </row>
     <row r="29">
@@ -2791,22 +2791,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>383.716409991395</v>
+        <v>82.51238281600085</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>366.9850956789426</v>
       </c>
       <c r="D29" t="n">
-        <v>174.3791888875506</v>
+        <v>356.6047327545984</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>383.1180357552875</v>
       </c>
       <c r="F29" t="n">
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>413.6097194764729</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -2845,7 +2845,7 @@
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>217.5149286494106</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
         <v>0</v>
@@ -2888,10 +2888,10 @@
         <v>135.3570519053243</v>
       </c>
       <c r="H30" t="n">
-        <v>22.34031300679495</v>
+        <v>104.0288287853823</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>63.56783007605712</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2939,7 +2939,7 @@
         <v>204.4616296084783</v>
       </c>
       <c r="Y30" t="n">
-        <v>203.671151418586</v>
+        <v>58.41480556394149</v>
       </c>
     </row>
     <row r="31">
@@ -2949,7 +2949,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>180.0836914906838</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -2994,7 +2994,7 @@
         <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>32.99521853687121</v>
+        <v>0</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -3003,16 +3003,16 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>225.9462130081922</v>
       </c>
       <c r="U31" t="n">
-        <v>156.527096432044</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>252.9363510669392</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>143.6597934514067</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -3031,7 +3031,7 @@
         <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>366.9850956789426</v>
       </c>
       <c r="D32" t="n">
         <v>0</v>
@@ -3043,13 +3043,13 @@
         <v>407.2938634805408</v>
       </c>
       <c r="G32" t="n">
-        <v>402.1463023126832</v>
+        <v>413.6097194764729</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>325.3930767845979</v>
       </c>
       <c r="I32" t="n">
-        <v>157.2246747536534</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3079,19 +3079,19 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>177.493467653868</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>217.5149286494106</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
         <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>328.5332215225193</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>176.9247029521209</v>
       </c>
       <c r="X32" t="n">
         <v>0</v>
@@ -3107,7 +3107,7 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>165.3721256103448</v>
+        <v>20.11577975570017</v>
       </c>
       <c r="C33" t="n">
         <v>171.025583927401</v>
@@ -3119,7 +3119,7 @@
         <v>156.0334337071738</v>
       </c>
       <c r="F33" t="n">
-        <v>0</v>
+        <v>143.5062320835493</v>
       </c>
       <c r="G33" t="n">
         <v>135.3570519053243</v>
@@ -3128,7 +3128,7 @@
         <v>104.0288287853823</v>
       </c>
       <c r="I33" t="n">
-        <v>61.81771630496191</v>
+        <v>63.56783007605712</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3186,13 +3186,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>180.0836914906838</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.3365529312023</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>149.0055665145194</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -3231,16 +3231,16 @@
         <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>32.99521853687121</v>
+        <v>0</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>212.6245410698995</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>225.9462130081922</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -3249,13 +3249,13 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>150.9763849115753</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>126.1165465901325</v>
       </c>
     </row>
     <row r="35">
@@ -3277,7 +3277,7 @@
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>407.2938634805408</v>
       </c>
       <c r="G35" t="n">
         <v>413.6097194764729</v>
@@ -3286,7 +3286,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>157.2246747536534</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3313,7 +3313,7 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>63.64170646647294</v>
       </c>
       <c r="S35" t="n">
         <v>177.493467653868</v>
@@ -3325,16 +3325,16 @@
         <v>251.3781599023558</v>
       </c>
       <c r="V35" t="n">
-        <v>134.7118275604784</v>
+        <v>328.5332215225193</v>
       </c>
       <c r="W35" t="n">
         <v>350.5301170005546</v>
       </c>
       <c r="X35" t="n">
-        <v>370.8615991311694</v>
+        <v>250.0163817270037</v>
       </c>
       <c r="Y35" t="n">
-        <v>386.6870717512358</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -3356,10 +3356,10 @@
         <v>156.0334337071738</v>
       </c>
       <c r="F36" t="n">
-        <v>133.606938134229</v>
+        <v>143.5062320835493</v>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>135.3570519053243</v>
       </c>
       <c r="H36" t="n">
         <v>104.0288287853823</v>
@@ -3410,7 +3410,7 @@
         <v>249.98934675</v>
       </c>
       <c r="X36" t="n">
-        <v>204.4616296084783</v>
+        <v>59.20528375383371</v>
       </c>
       <c r="Y36" t="n">
         <v>203.671151418586</v>
@@ -3423,19 +3423,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>43.43975792694708</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>149.0055665145194</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.9746241731992</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>146.1590214098045</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -3444,7 +3444,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>136.9633875020681</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3468,19 +3468,19 @@
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>32.99521853687121</v>
+        <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>148.2796428708918</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>212.6245410698995</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>228.6429550488756</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -3505,25 +3505,25 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>366.9850956789426</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
         <v>356.6047327545984</v>
       </c>
       <c r="E38" t="n">
-        <v>383.1180357552875</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>135.5206472640551</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>325.3930767845979</v>
       </c>
       <c r="I38" t="n">
-        <v>157.2246747536534</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3550,28 +3550,28 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>63.64170646647294</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>177.493467653868</v>
       </c>
       <c r="T38" t="n">
-        <v>217.5149286494106</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
         <v>251.3781599023558</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>241.0633409008186</v>
       </c>
       <c r="W38" t="n">
         <v>350.5301170005546</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>370.8615991311694</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>386.6870717512358</v>
       </c>
     </row>
     <row r="39">
@@ -3593,7 +3593,7 @@
         <v>156.0334337071738</v>
       </c>
       <c r="F39" t="n">
-        <v>61.81771630496194</v>
+        <v>143.5062320835493</v>
       </c>
       <c r="G39" t="n">
         <v>135.3570519053243</v>
@@ -3602,7 +3602,7 @@
         <v>104.0288287853823</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>63.56783007605712</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3635,7 +3635,7 @@
         <v>156.5880156630749</v>
       </c>
       <c r="T39" t="n">
-        <v>195.6974464808964</v>
+        <v>50.4411006262517</v>
       </c>
       <c r="U39" t="n">
         <v>224.6133508632724</v>
@@ -3675,7 +3675,7 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>167.3311041893321</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3705,7 +3705,7 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>32.99521853687121</v>
+        <v>0</v>
       </c>
       <c r="R40" t="n">
         <v>148.2796428708918</v>
@@ -3723,7 +3723,7 @@
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>228.6429550488756</v>
+        <v>94.30706939641466</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -3742,25 +3742,25 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>366.9850956789426</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>356.6047327545984</v>
       </c>
       <c r="E41" t="n">
-        <v>383.1180357552875</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>407.2938634805408</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>325.3930767845979</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>157.2246747536534</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3787,28 +3787,28 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>63.64170646647294</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>177.493467653868</v>
       </c>
       <c r="T41" t="n">
-        <v>110.7064162880423</v>
+        <v>217.5149286494106</v>
       </c>
       <c r="U41" t="n">
         <v>251.3781599023558</v>
       </c>
       <c r="V41" t="n">
-        <v>328.5332215225193</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>350.5301170005546</v>
       </c>
       <c r="X41" t="n">
         <v>370.8615991311694</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>253.0108092489909</v>
       </c>
     </row>
     <row r="42">
@@ -3827,7 +3827,7 @@
         <v>146.1124235746456</v>
       </c>
       <c r="E42" t="n">
-        <v>114.8059166379117</v>
+        <v>156.0334337071738</v>
       </c>
       <c r="F42" t="n">
         <v>143.5062320835493</v>
@@ -3836,10 +3836,10 @@
         <v>135.3570519053243</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>104.0288287853823</v>
       </c>
       <c r="I42" t="n">
-        <v>63.56783007605712</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3866,7 +3866,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>53.33473024000174</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>156.5880156630749</v>
@@ -3881,7 +3881,7 @@
         <v>231.9087310396551</v>
       </c>
       <c r="W42" t="n">
-        <v>249.98934675</v>
+        <v>221.6355612114147</v>
       </c>
       <c r="X42" t="n">
         <v>204.4616296084783</v>
@@ -3897,7 +3897,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>180.0836914906838</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -3909,16 +3909,16 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>146.1590214098045</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>156.6686349500177</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>136.9633875020681</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3942,25 +3942,25 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>32.99521853687121</v>
+        <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>2.667622173963943</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>17.43275451522956</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>286.0218075870219</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>286.0925768874155</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -3976,16 +3976,16 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>383.716409991395</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>356.6047327545984</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>383.1180357552875</v>
       </c>
       <c r="F44" t="n">
         <v>0</v>
@@ -3994,7 +3994,7 @@
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>325.3930767845979</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4030,13 +4030,13 @@
         <v>177.493467653868</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>214.5500379001294</v>
       </c>
       <c r="U44" t="n">
         <v>251.3781599023558</v>
       </c>
       <c r="V44" t="n">
-        <v>182.7400076940218</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
         <v>350.5301170005546</v>
@@ -4058,7 +4058,7 @@
         <v>165.3721256103448</v>
       </c>
       <c r="C45" t="n">
-        <v>171.025583927401</v>
+        <v>161.1262899780808</v>
       </c>
       <c r="D45" t="n">
         <v>146.1124235746456</v>
@@ -4070,7 +4070,7 @@
         <v>143.5062320835493</v>
       </c>
       <c r="G45" t="n">
-        <v>135.3570519053243</v>
+        <v>0</v>
       </c>
       <c r="H45" t="n">
         <v>104.0288287853823</v>
@@ -4103,7 +4103,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>53.33473024000174</v>
       </c>
       <c r="S45" t="n">
         <v>156.5880156630749</v>
@@ -4115,7 +4115,7 @@
         <v>224.6133508632724</v>
       </c>
       <c r="V45" t="n">
-        <v>139.9871154250126</v>
+        <v>231.9087310396551</v>
       </c>
       <c r="W45" t="n">
         <v>249.98934675</v>
@@ -4146,10 +4146,10 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>16.64049925911437</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>167.3311041893321</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4185,7 +4185,7 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>177.8474706505777</v>
+        <v>212.6245410698995</v>
       </c>
       <c r="T46" t="n">
         <v>225.9462130081922</v>
@@ -4203,7 +4203,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.7486738677682</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4306,28 +4306,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>252.2782741702153</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="C2" t="n">
-        <v>252.2782741702153</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="D2" t="n">
-        <v>252.2782741702153</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="E2" t="n">
-        <v>252.2782741702153</v>
+        <v>820.0808785163064</v>
       </c>
       <c r="F2" t="n">
-        <v>244.9107353009821</v>
+        <v>543.0265276662028</v>
       </c>
       <c r="G2" t="n">
-        <v>229.9059217617589</v>
+        <v>265.9721768160992</v>
       </c>
       <c r="H2" t="n">
-        <v>229.9059217617589</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="I2" t="n">
-        <v>22.60864108688619</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="J2" t="n">
         <v>21.9427045873282</v>
@@ -4354,28 +4354,28 @@
         <v>1097.13522936641</v>
       </c>
       <c r="R2" t="n">
-        <v>953.8515700725947</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="S2" t="n">
-        <v>745.907174392252</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="T2" t="n">
-        <v>745.907174392252</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="U2" t="n">
-        <v>745.907174392252</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="V2" t="n">
-        <v>745.907174392252</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="W2" t="n">
-        <v>529.3326250203188</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="X2" t="n">
-        <v>529.3326250203188</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="Y2" t="n">
-        <v>252.2782741702153</v>
+        <v>1097.13522936641</v>
       </c>
     </row>
     <row r="3">
@@ -4385,13 +4385,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>823.5927134542401</v>
+        <v>981.2022424513852</v>
       </c>
       <c r="C3" t="n">
-        <v>650.8395983760572</v>
+        <v>808.4491273732024</v>
       </c>
       <c r="D3" t="n">
-        <v>503.251291735001</v>
+        <v>660.8608207321463</v>
       </c>
       <c r="E3" t="n">
         <v>503.251291735001</v>
@@ -4415,13 +4415,13 @@
         <v>29.3360154338131</v>
       </c>
       <c r="L3" t="n">
-        <v>277.4136198757311</v>
+        <v>29.3360154338131</v>
       </c>
       <c r="M3" t="n">
-        <v>545.8456222469285</v>
+        <v>277.9660032696079</v>
       </c>
       <c r="N3" t="n">
-        <v>817.386591515115</v>
+        <v>549.5069725377944</v>
       </c>
       <c r="O3" t="n">
         <v>817.386591515115</v>
@@ -4433,28 +4433,28 @@
         <v>1097.13522936641</v>
       </c>
       <c r="R3" t="n">
-        <v>1097.13522936641</v>
+        <v>1001.483734658237</v>
       </c>
       <c r="S3" t="n">
-        <v>1097.13522936641</v>
+        <v>1001.483734658237</v>
       </c>
       <c r="T3" t="n">
-        <v>1097.13522936641</v>
+        <v>1001.483734658237</v>
       </c>
       <c r="U3" t="n">
-        <v>1097.13522936641</v>
+        <v>1001.483734658237</v>
       </c>
       <c r="V3" t="n">
-        <v>1097.13522936641</v>
+        <v>1001.483734658237</v>
       </c>
       <c r="W3" t="n">
-        <v>844.6207376997432</v>
+        <v>1001.483734658237</v>
       </c>
       <c r="X3" t="n">
-        <v>844.6207376997432</v>
+        <v>1001.483734658237</v>
       </c>
       <c r="Y3" t="n">
-        <v>844.6207376997432</v>
+        <v>1001.483734658237</v>
       </c>
     </row>
     <row r="4">
@@ -4518,13 +4518,13 @@
         <v>202.6630345283467</v>
       </c>
       <c r="T4" t="n">
-        <v>21.9427045873282</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="U4" t="n">
-        <v>21.9427045873282</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="V4" t="n">
-        <v>21.9427045873282</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="W4" t="n">
         <v>21.9427045873282</v>
@@ -4543,46 +4543,46 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>468.8528235421485</v>
+        <v>745.907174392252</v>
       </c>
       <c r="C5" t="n">
-        <v>468.8528235421485</v>
+        <v>745.907174392252</v>
       </c>
       <c r="D5" t="n">
-        <v>468.8528235421485</v>
+        <v>745.907174392252</v>
       </c>
       <c r="E5" t="n">
-        <v>314.0018689766549</v>
+        <v>576.7173427870933</v>
       </c>
       <c r="F5" t="n">
-        <v>36.94751812655136</v>
+        <v>299.6629919369898</v>
       </c>
       <c r="G5" t="n">
-        <v>21.9427045873282</v>
+        <v>22.60864108688619</v>
       </c>
       <c r="H5" t="n">
-        <v>21.9427045873282</v>
+        <v>22.60864108688619</v>
       </c>
       <c r="I5" t="n">
-        <v>21.9427045873282</v>
+        <v>22.60864108688619</v>
       </c>
       <c r="J5" t="n">
         <v>21.9427045873282</v>
       </c>
       <c r="K5" t="n">
-        <v>143.2410926494319</v>
+        <v>143.241092649432</v>
       </c>
       <c r="L5" t="n">
-        <v>345.6915471007954</v>
+        <v>345.6915471007955</v>
       </c>
       <c r="M5" t="n">
-        <v>586.1689795623907</v>
+        <v>586.1689795623909</v>
       </c>
       <c r="N5" t="n">
-        <v>815.0204133003602</v>
+        <v>815.0204133003604</v>
       </c>
       <c r="O5" t="n">
-        <v>984.9899813536997</v>
+        <v>984.9899813536998</v>
       </c>
       <c r="P5" t="n">
         <v>1093.116282134284</v>
@@ -4622,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>21.9427045873282</v>
+        <v>862.8839858920107</v>
       </c>
       <c r="C6" t="n">
-        <v>21.9427045873282</v>
+        <v>808.4491273732024</v>
       </c>
       <c r="D6" t="n">
-        <v>21.9427045873282</v>
+        <v>660.8608207321463</v>
       </c>
       <c r="E6" t="n">
-        <v>21.9427045873282</v>
+        <v>503.251291735001</v>
       </c>
       <c r="F6" t="n">
-        <v>21.9427045873282</v>
+        <v>358.2955017516178</v>
       </c>
       <c r="G6" t="n">
-        <v>21.9427045873282</v>
+        <v>220.8983197263226</v>
       </c>
       <c r="H6" t="n">
-        <v>21.9427045873282</v>
+        <v>109.3200212191178</v>
       </c>
       <c r="I6" t="n">
         <v>21.9427045873282</v>
       </c>
       <c r="J6" t="n">
-        <v>29.3360154338131</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="K6" t="n">
-        <v>168.577974491964</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="L6" t="n">
-        <v>416.655578933882</v>
+        <v>270.0203090292462</v>
       </c>
       <c r="M6" t="n">
-        <v>549.5069725377944</v>
+        <v>541.5612782974326</v>
       </c>
       <c r="N6" t="n">
-        <v>549.5069725377944</v>
+        <v>630.6851405540922</v>
       </c>
       <c r="O6" t="n">
-        <v>817.386591515115</v>
+        <v>898.564759531413</v>
       </c>
       <c r="P6" t="n">
-        <v>1015.957061350112</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="Q6" t="n">
         <v>1097.13522936641</v>
       </c>
       <c r="R6" t="n">
-        <v>1001.483734658237</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="S6" t="n">
-        <v>830.8154377838487</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="T6" t="n">
-        <v>630.4290419169106</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="U6" t="n">
-        <v>630.4290419169106</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="V6" t="n">
-        <v>396.1777984425115</v>
+        <v>862.8839858920107</v>
       </c>
       <c r="W6" t="n">
-        <v>396.1777984425115</v>
+        <v>862.8839858920107</v>
       </c>
       <c r="X6" t="n">
-        <v>227.6711403636777</v>
+        <v>862.8839858920107</v>
       </c>
       <c r="Y6" t="n">
-        <v>21.9427045873282</v>
+        <v>862.8839858920107</v>
       </c>
     </row>
     <row r="7">
@@ -4780,22 +4780,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>599.0896951955497</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="C8" t="n">
-        <v>322.0353443454461</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="D8" t="n">
-        <v>44.98099349534252</v>
+        <v>820.0808785163064</v>
       </c>
       <c r="E8" t="n">
-        <v>44.98099349534252</v>
+        <v>820.0808785163064</v>
       </c>
       <c r="F8" t="n">
-        <v>37.61345462610935</v>
+        <v>543.0265276662028</v>
       </c>
       <c r="G8" t="n">
-        <v>22.60864108688619</v>
+        <v>299.6629919369898</v>
       </c>
       <c r="H8" t="n">
         <v>22.60864108688619</v>
@@ -4828,28 +4828,28 @@
         <v>1097.13522936641</v>
       </c>
       <c r="R8" t="n">
-        <v>953.8515700725947</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="S8" t="n">
-        <v>953.8515700725947</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="T8" t="n">
-        <v>953.8515700725947</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="U8" t="n">
-        <v>953.8515700725947</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="V8" t="n">
-        <v>876.1440460456532</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="W8" t="n">
-        <v>876.1440460456532</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="X8" t="n">
-        <v>876.1440460456532</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="Y8" t="n">
-        <v>599.0896951955497</v>
+        <v>1097.13522936641</v>
       </c>
     </row>
     <row r="9">
@@ -4859,13 +4859,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>21.9427045873282</v>
+        <v>443.3269431037836</v>
       </c>
       <c r="C9" t="n">
-        <v>21.9427045873282</v>
+        <v>270.5738280256008</v>
       </c>
       <c r="D9" t="n">
-        <v>21.9427045873282</v>
+        <v>122.9855213845447</v>
       </c>
       <c r="E9" t="n">
         <v>21.9427045873282</v>
@@ -4883,22 +4883,22 @@
         <v>21.9427045873282</v>
       </c>
       <c r="J9" t="n">
-        <v>29.3360154338131</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="K9" t="n">
-        <v>29.3360154338131</v>
+        <v>161.1846636454791</v>
       </c>
       <c r="L9" t="n">
-        <v>277.4136198757311</v>
+        <v>409.2622680873972</v>
       </c>
       <c r="M9" t="n">
-        <v>548.9545891439176</v>
+        <v>549.5069725377944</v>
       </c>
       <c r="N9" t="n">
-        <v>820.4955584121041</v>
+        <v>549.5069725377944</v>
       </c>
       <c r="O9" t="n">
-        <v>820.4955584121041</v>
+        <v>817.386591515115</v>
       </c>
       <c r="P9" t="n">
         <v>1015.957061350112</v>
@@ -4913,22 +4913,22 @@
         <v>1097.13522936641</v>
       </c>
       <c r="T9" t="n">
-        <v>913.6389721067884</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="U9" t="n">
-        <v>686.7125306247669</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="V9" t="n">
-        <v>686.7125306247669</v>
+        <v>862.8839858920107</v>
       </c>
       <c r="W9" t="n">
-        <v>434.1980389581003</v>
+        <v>610.3694942253441</v>
       </c>
       <c r="X9" t="n">
-        <v>227.6711403636777</v>
+        <v>610.3694942253441</v>
       </c>
       <c r="Y9" t="n">
-        <v>21.9427045873282</v>
+        <v>610.3694942253441</v>
       </c>
     </row>
     <row r="10">
@@ -4938,31 +4938,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>21.9427045873282</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="C10" t="n">
-        <v>21.9427045873282</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="D10" t="n">
-        <v>21.9427045873282</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="E10" t="n">
-        <v>21.9427045873282</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="F10" t="n">
-        <v>21.9427045873282</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="G10" t="n">
-        <v>21.9427045873282</v>
+        <v>33.07759116460122</v>
       </c>
       <c r="H10" t="n">
-        <v>21.9427045873282</v>
+        <v>33.07759116460122</v>
       </c>
       <c r="I10" t="n">
-        <v>21.9427045873282</v>
+        <v>33.07759116460122</v>
       </c>
       <c r="J10" t="n">
-        <v>21.9427045873282</v>
+        <v>33.07759116460122</v>
       </c>
       <c r="K10" t="n">
         <v>21.9427045873282</v>
@@ -5004,10 +5004,10 @@
         <v>202.6630345283467</v>
       </c>
       <c r="X10" t="n">
-        <v>21.9427045873282</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="Y10" t="n">
-        <v>21.9427045873282</v>
+        <v>202.6630345283467</v>
       </c>
     </row>
     <row r="11">
@@ -5017,19 +5017,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1316.19850650538</v>
+        <v>1320.304069059332</v>
       </c>
       <c r="C11" t="n">
-        <v>1316.19850650538</v>
+        <v>949.6120532220164</v>
       </c>
       <c r="D11" t="n">
-        <v>955.9917057431599</v>
+        <v>949.6120532220164</v>
       </c>
       <c r="E11" t="n">
-        <v>955.9917057431599</v>
+        <v>949.6120532220164</v>
       </c>
       <c r="F11" t="n">
-        <v>955.9917057431599</v>
+        <v>538.2041103123792</v>
       </c>
       <c r="G11" t="n">
         <v>538.2041103123792</v>
@@ -5080,13 +5080,13 @@
         <v>1740.436928543366</v>
       </c>
       <c r="W11" t="n">
-        <v>1690.806182395451</v>
+        <v>1740.436928543366</v>
       </c>
       <c r="X11" t="n">
-        <v>1316.19850650538</v>
+        <v>1740.436928543366</v>
       </c>
       <c r="Y11" t="n">
-        <v>1316.19850650538</v>
+        <v>1349.843926774441</v>
       </c>
     </row>
     <row r="12">
@@ -5108,37 +5108,37 @@
         <v>354.9574895622956</v>
       </c>
       <c r="F12" t="n">
-        <v>292.5153518805158</v>
+        <v>354.9574895622956</v>
       </c>
       <c r="G12" t="n">
-        <v>155.7910570266529</v>
+        <v>218.2331947084326</v>
       </c>
       <c r="H12" t="n">
-        <v>50.71143199091319</v>
+        <v>114.9213613606679</v>
       </c>
       <c r="I12" t="n">
         <v>50.71143199091319</v>
       </c>
       <c r="J12" t="n">
-        <v>120.4127199202217</v>
+        <v>101.5931163690881</v>
       </c>
       <c r="K12" t="n">
-        <v>366.1489360814929</v>
+        <v>347.3293325303594</v>
       </c>
       <c r="L12" t="n">
-        <v>757.4212114061545</v>
+        <v>738.601607855021</v>
       </c>
       <c r="M12" t="n">
-        <v>1266.817695663801</v>
+        <v>1247.998092112667</v>
       </c>
       <c r="N12" t="n">
-        <v>1620.913172155677</v>
+        <v>1786.275517555499</v>
       </c>
       <c r="O12" t="n">
-        <v>2045.703836711752</v>
+        <v>2211.066182111574</v>
       </c>
       <c r="P12" t="n">
-        <v>2370.209254145837</v>
+        <v>2535.571599545659</v>
       </c>
       <c r="Q12" t="n">
         <v>2535.571599545659</v>
@@ -5175,28 +5175,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>346.8060234888967</v>
+        <v>100.5639307332544</v>
       </c>
       <c r="C13" t="n">
-        <v>346.8060234888967</v>
+        <v>100.5639307332544</v>
       </c>
       <c r="D13" t="n">
-        <v>346.8060234888967</v>
+        <v>100.5639307332544</v>
       </c>
       <c r="E13" t="n">
-        <v>198.3468071523319</v>
+        <v>100.5639307332544</v>
       </c>
       <c r="F13" t="n">
-        <v>50.71143199091319</v>
+        <v>100.5639307332544</v>
       </c>
       <c r="G13" t="n">
-        <v>50.71143199091319</v>
+        <v>100.5639307332544</v>
       </c>
       <c r="H13" t="n">
-        <v>50.71143199091319</v>
+        <v>100.5639307332544</v>
       </c>
       <c r="I13" t="n">
-        <v>50.71143199091319</v>
+        <v>100.5639307332544</v>
       </c>
       <c r="J13" t="n">
         <v>50.71143199091319</v>
@@ -5232,19 +5232,19 @@
         <v>679.5420961591335</v>
       </c>
       <c r="U13" t="n">
-        <v>679.5420961591335</v>
+        <v>390.6311794045659</v>
       </c>
       <c r="V13" t="n">
-        <v>679.5420961591335</v>
+        <v>390.6311794045659</v>
       </c>
       <c r="W13" t="n">
-        <v>679.5420961591335</v>
+        <v>390.6311794045659</v>
       </c>
       <c r="X13" t="n">
-        <v>679.5420961591335</v>
+        <v>390.6311794045659</v>
       </c>
       <c r="Y13" t="n">
-        <v>458.5838397270444</v>
+        <v>169.6729229724768</v>
       </c>
     </row>
     <row r="14">
@@ -5254,22 +5254,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2147.979266221018</v>
+        <v>741.8557682866523</v>
       </c>
       <c r="C14" t="n">
-        <v>1955.781561537881</v>
+        <v>741.8557682866523</v>
       </c>
       <c r="D14" t="n">
-        <v>1595.57476077566</v>
+        <v>741.8557682866523</v>
       </c>
       <c r="E14" t="n">
-        <v>1208.586845871329</v>
+        <v>354.8678533823215</v>
       </c>
       <c r="F14" t="n">
-        <v>797.1789029616918</v>
+        <v>354.8678533823215</v>
       </c>
       <c r="G14" t="n">
-        <v>379.3913075309111</v>
+        <v>354.8678533823215</v>
       </c>
       <c r="H14" t="n">
         <v>50.71143199091319</v>
@@ -5278,10 +5278,10 @@
         <v>50.71143199091319</v>
       </c>
       <c r="J14" t="n">
-        <v>154.6737472370294</v>
+        <v>154.6737472370296</v>
       </c>
       <c r="K14" t="n">
-        <v>432.762901072481</v>
+        <v>432.7629010724813</v>
       </c>
       <c r="L14" t="n">
         <v>829.7261648535823</v>
@@ -5290,7 +5290,7 @@
         <v>1286.636576300462</v>
       </c>
       <c r="N14" t="n">
-        <v>1735.42310089741</v>
+        <v>1735.423100897411</v>
       </c>
       <c r="O14" t="n">
         <v>2113.071138623965</v>
@@ -5302,28 +5302,28 @@
         <v>2535.571599545659</v>
       </c>
       <c r="R14" t="n">
-        <v>2535.571599545659</v>
+        <v>2471.287047559323</v>
       </c>
       <c r="S14" t="n">
-        <v>2535.571599545659</v>
+        <v>2292.00071659582</v>
       </c>
       <c r="T14" t="n">
-        <v>2535.571599545659</v>
+        <v>2072.288667455001</v>
       </c>
       <c r="U14" t="n">
-        <v>2535.571599545659</v>
+        <v>1818.371334220299</v>
       </c>
       <c r="V14" t="n">
-        <v>2535.571599545659</v>
+        <v>1486.519595308663</v>
       </c>
       <c r="W14" t="n">
-        <v>2535.571599545659</v>
+        <v>1132.448770055577</v>
       </c>
       <c r="X14" t="n">
-        <v>2535.571599545659</v>
+        <v>1132.448770055577</v>
       </c>
       <c r="Y14" t="n">
-        <v>2535.571599545659</v>
+        <v>741.8557682866523</v>
       </c>
     </row>
     <row r="15">
@@ -5333,22 +5333,22 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>979.6320219500381</v>
+        <v>832.9084402786798</v>
       </c>
       <c r="C15" t="n">
-        <v>806.8789068718552</v>
+        <v>660.1553252004969</v>
       </c>
       <c r="D15" t="n">
-        <v>659.290600230799</v>
+        <v>512.5670185594408</v>
       </c>
       <c r="E15" t="n">
-        <v>501.6810712336537</v>
+        <v>396.6014461979139</v>
       </c>
       <c r="F15" t="n">
-        <v>356.7252812502705</v>
+        <v>251.6456562145308</v>
       </c>
       <c r="G15" t="n">
-        <v>220.0009863964076</v>
+        <v>114.9213613606679</v>
       </c>
       <c r="H15" t="n">
         <v>114.9213613606679</v>
@@ -5360,22 +5360,22 @@
         <v>50.71143199091319</v>
       </c>
       <c r="K15" t="n">
-        <v>296.4476481521845</v>
+        <v>181.9669871305373</v>
       </c>
       <c r="L15" t="n">
-        <v>687.7199234768461</v>
+        <v>573.239262455199</v>
       </c>
       <c r="M15" t="n">
-        <v>1197.116407734492</v>
+        <v>1082.635746712845</v>
       </c>
       <c r="N15" t="n">
-        <v>1735.393833177324</v>
+        <v>1620.913172155677</v>
       </c>
       <c r="O15" t="n">
-        <v>2160.184497733399</v>
+        <v>2045.703836711752</v>
       </c>
       <c r="P15" t="n">
-        <v>2484.689915167484</v>
+        <v>2370.209254145837</v>
       </c>
       <c r="Q15" t="n">
         <v>2535.571599545659</v>
@@ -5399,10 +5399,10 @@
         <v>1412.206325771012</v>
       </c>
       <c r="X15" t="n">
-        <v>1352.403008847948</v>
+        <v>1205.67942717659</v>
       </c>
       <c r="Y15" t="n">
-        <v>1146.674573071598</v>
+        <v>999.9509914002402</v>
       </c>
     </row>
     <row r="16">
@@ -5412,7 +5412,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>50.71143199091319</v>
+        <v>219.7382531335418</v>
       </c>
       <c r="C16" t="n">
         <v>50.71143199091319</v>
@@ -5460,28 +5460,28 @@
         <v>679.5420961591335</v>
       </c>
       <c r="R16" t="n">
-        <v>679.5420961591335</v>
+        <v>529.7646791178286</v>
       </c>
       <c r="S16" t="n">
-        <v>464.7698324521643</v>
+        <v>529.7646791178286</v>
       </c>
       <c r="T16" t="n">
-        <v>464.7698324521643</v>
+        <v>529.7646791178286</v>
       </c>
       <c r="U16" t="n">
-        <v>175.8589156975967</v>
+        <v>240.853762363261</v>
       </c>
       <c r="V16" t="n">
-        <v>175.8589156975967</v>
+        <v>240.853762363261</v>
       </c>
       <c r="W16" t="n">
-        <v>50.71143199091319</v>
+        <v>219.7382531335418</v>
       </c>
       <c r="X16" t="n">
-        <v>50.71143199091319</v>
+        <v>219.7382531335418</v>
       </c>
       <c r="Y16" t="n">
-        <v>50.71143199091319</v>
+        <v>219.7382531335418</v>
       </c>
     </row>
     <row r="17">
@@ -5491,25 +5491,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>781.6102485904496</v>
+        <v>1011.75842740021</v>
       </c>
       <c r="C17" t="n">
-        <v>410.9182327531338</v>
+        <v>1011.75842740021</v>
       </c>
       <c r="D17" t="n">
-        <v>50.71143199091319</v>
+        <v>1011.75842740021</v>
       </c>
       <c r="E17" t="n">
-        <v>50.71143199091319</v>
+        <v>955.9917057431599</v>
       </c>
       <c r="F17" t="n">
-        <v>50.71143199091319</v>
+        <v>955.9917057431599</v>
       </c>
       <c r="G17" t="n">
-        <v>50.71143199091319</v>
+        <v>538.2041103123792</v>
       </c>
       <c r="H17" t="n">
-        <v>50.71143199091319</v>
+        <v>209.5242347723812</v>
       </c>
       <c r="I17" t="n">
         <v>50.71143199091319</v>
@@ -5521,13 +5521,13 @@
         <v>432.762901072481</v>
       </c>
       <c r="L17" t="n">
-        <v>829.7261648535822</v>
+        <v>829.7261648535823</v>
       </c>
       <c r="M17" t="n">
         <v>1286.636576300462</v>
       </c>
       <c r="N17" t="n">
-        <v>1735.423100897411</v>
+        <v>1735.42310089741</v>
       </c>
       <c r="O17" t="n">
         <v>2113.071138623965</v>
@@ -5548,19 +5548,19 @@
         <v>2072.288667455001</v>
       </c>
       <c r="U17" t="n">
-        <v>1818.371334220299</v>
+        <v>2072.288667455001</v>
       </c>
       <c r="V17" t="n">
-        <v>1486.519595308663</v>
+        <v>1740.436928543366</v>
       </c>
       <c r="W17" t="n">
-        <v>1132.448770055577</v>
+        <v>1386.36610329028</v>
       </c>
       <c r="X17" t="n">
-        <v>781.6102485904496</v>
+        <v>1011.75842740021</v>
       </c>
       <c r="Y17" t="n">
-        <v>781.6102485904496</v>
+        <v>1011.75842740021</v>
       </c>
     </row>
     <row r="18">
@@ -5570,7 +5570,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>832.9084402786798</v>
+        <v>979.6320219500381</v>
       </c>
       <c r="C18" t="n">
         <v>806.8789068718552</v>
@@ -5594,25 +5594,25 @@
         <v>50.71143199091319</v>
       </c>
       <c r="J18" t="n">
-        <v>120.4127199202217</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="K18" t="n">
-        <v>366.1489360814929</v>
+        <v>296.4476481521845</v>
       </c>
       <c r="L18" t="n">
-        <v>757.4212114061545</v>
+        <v>687.7199234768461</v>
       </c>
       <c r="M18" t="n">
-        <v>1266.817695663801</v>
+        <v>1197.116407734492</v>
       </c>
       <c r="N18" t="n">
-        <v>1805.095121106633</v>
+        <v>1735.393833177324</v>
       </c>
       <c r="O18" t="n">
-        <v>2045.703836711752</v>
+        <v>2160.184497733399</v>
       </c>
       <c r="P18" t="n">
-        <v>2370.209254145837</v>
+        <v>2484.689915167484</v>
       </c>
       <c r="Q18" t="n">
         <v>2535.571599545659</v>
@@ -5639,7 +5639,7 @@
         <v>1205.67942717659</v>
       </c>
       <c r="Y18" t="n">
-        <v>999.9509914002402</v>
+        <v>1146.674573071598</v>
       </c>
     </row>
     <row r="19">
@@ -5649,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>50.71143199091319</v>
+        <v>336.6936632150269</v>
       </c>
       <c r="C19" t="n">
-        <v>50.71143199091319</v>
+        <v>336.6936632150269</v>
       </c>
       <c r="D19" t="n">
-        <v>50.71143199091319</v>
+        <v>336.6936632150269</v>
       </c>
       <c r="E19" t="n">
-        <v>50.71143199091319</v>
+        <v>336.6936632150269</v>
       </c>
       <c r="F19" t="n">
-        <v>50.71143199091319</v>
+        <v>189.0582880536082</v>
       </c>
       <c r="G19" t="n">
-        <v>50.71143199091319</v>
+        <v>189.0582880536082</v>
       </c>
       <c r="H19" t="n">
-        <v>50.71143199091319</v>
+        <v>189.0582880536082</v>
       </c>
       <c r="I19" t="n">
         <v>50.71143199091319</v>
@@ -5703,22 +5703,22 @@
         <v>679.5420961591335</v>
       </c>
       <c r="T19" t="n">
-        <v>451.3135981710606</v>
+        <v>679.5420961591335</v>
       </c>
       <c r="U19" t="n">
-        <v>451.3135981710606</v>
+        <v>679.5420961591335</v>
       </c>
       <c r="V19" t="n">
-        <v>195.8223344670816</v>
+        <v>679.5420961591335</v>
       </c>
       <c r="W19" t="n">
-        <v>50.71143199091319</v>
+        <v>679.5420961591335</v>
       </c>
       <c r="X19" t="n">
-        <v>50.71143199091319</v>
+        <v>679.5420961591335</v>
       </c>
       <c r="Y19" t="n">
-        <v>50.71143199091319</v>
+        <v>518.5963818924853</v>
       </c>
     </row>
     <row r="20">
@@ -5728,16 +5728,16 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>781.6102485904496</v>
+        <v>1209.314090567102</v>
       </c>
       <c r="C20" t="n">
-        <v>410.9182327531338</v>
+        <v>1209.314090567102</v>
       </c>
       <c r="D20" t="n">
-        <v>50.71143199091319</v>
+        <v>849.1072898048812</v>
       </c>
       <c r="E20" t="n">
-        <v>50.71143199091319</v>
+        <v>462.1193749005504</v>
       </c>
       <c r="F20" t="n">
         <v>50.71143199091319</v>
@@ -5758,7 +5758,7 @@
         <v>432.762901072481</v>
       </c>
       <c r="L20" t="n">
-        <v>829.7261648535821</v>
+        <v>829.7261648535822</v>
       </c>
       <c r="M20" t="n">
         <v>1286.636576300462</v>
@@ -5779,25 +5779,25 @@
         <v>2471.287047559323</v>
       </c>
       <c r="S20" t="n">
-        <v>2292.00071659582</v>
+        <v>2362.107101550738</v>
       </c>
       <c r="T20" t="n">
-        <v>2072.288667455001</v>
+        <v>2362.107101550738</v>
       </c>
       <c r="U20" t="n">
-        <v>1818.371334220299</v>
+        <v>2362.107101550738</v>
       </c>
       <c r="V20" t="n">
-        <v>1818.371334220299</v>
+        <v>2362.107101550738</v>
       </c>
       <c r="W20" t="n">
-        <v>1559.795583684016</v>
+        <v>2362.107101550738</v>
       </c>
       <c r="X20" t="n">
-        <v>1559.795583684016</v>
+        <v>1987.499425660668</v>
       </c>
       <c r="Y20" t="n">
-        <v>1169.202581915091</v>
+        <v>1596.906423891743</v>
       </c>
     </row>
     <row r="21">
@@ -5807,40 +5807,40 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>915.4220925802833</v>
+        <v>979.6320219500381</v>
       </c>
       <c r="C21" t="n">
-        <v>742.6689775021005</v>
+        <v>806.8789068718552</v>
       </c>
       <c r="D21" t="n">
-        <v>595.0806708610443</v>
+        <v>659.290600230799</v>
       </c>
       <c r="E21" t="n">
-        <v>437.471141863899</v>
+        <v>501.6810712336537</v>
       </c>
       <c r="F21" t="n">
-        <v>292.5153518805158</v>
+        <v>356.7252812502705</v>
       </c>
       <c r="G21" t="n">
-        <v>155.7910570266529</v>
+        <v>220.0009863964076</v>
       </c>
       <c r="H21" t="n">
-        <v>50.71143199091319</v>
+        <v>114.9213613606679</v>
       </c>
       <c r="I21" t="n">
         <v>50.71143199091319</v>
       </c>
       <c r="J21" t="n">
-        <v>50.71143199091319</v>
+        <v>120.4127199202217</v>
       </c>
       <c r="K21" t="n">
-        <v>296.4476481521845</v>
+        <v>366.1489360814929</v>
       </c>
       <c r="L21" t="n">
-        <v>687.7199234768461</v>
+        <v>757.4212114061545</v>
       </c>
       <c r="M21" t="n">
-        <v>1082.635746712845</v>
+        <v>1266.817695663801</v>
       </c>
       <c r="N21" t="n">
         <v>1620.913172155677</v>
@@ -5867,16 +5867,16 @@
         <v>1898.972060912078</v>
       </c>
       <c r="V21" t="n">
-        <v>1664.720817437679</v>
+        <v>1811.444399109037</v>
       </c>
       <c r="W21" t="n">
-        <v>1412.206325771012</v>
+        <v>1558.92990744237</v>
       </c>
       <c r="X21" t="n">
-        <v>1288.193079478193</v>
+        <v>1352.403008847948</v>
       </c>
       <c r="Y21" t="n">
-        <v>1082.464643701844</v>
+        <v>1146.674573071598</v>
       </c>
     </row>
     <row r="22">
@@ -5886,22 +5886,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>50.71143199091319</v>
+        <v>377.9838957680342</v>
       </c>
       <c r="C22" t="n">
-        <v>50.71143199091319</v>
+        <v>377.9838957680342</v>
       </c>
       <c r="D22" t="n">
-        <v>50.71143199091319</v>
+        <v>377.9838957680342</v>
       </c>
       <c r="E22" t="n">
-        <v>50.71143199091319</v>
+        <v>377.9838957680342</v>
       </c>
       <c r="F22" t="n">
-        <v>50.71143199091319</v>
+        <v>377.9838957680342</v>
       </c>
       <c r="G22" t="n">
-        <v>50.71143199091319</v>
+        <v>208.9625784050725</v>
       </c>
       <c r="H22" t="n">
         <v>50.71143199091319</v>
@@ -5934,28 +5934,28 @@
         <v>646.2135925865364</v>
       </c>
       <c r="R22" t="n">
-        <v>496.4361755452314</v>
+        <v>646.2135925865364</v>
       </c>
       <c r="S22" t="n">
-        <v>496.4361755452314</v>
+        <v>646.2135925865364</v>
       </c>
       <c r="T22" t="n">
-        <v>268.2076775571585</v>
+        <v>646.2135925865364</v>
       </c>
       <c r="U22" t="n">
-        <v>268.2076775571585</v>
+        <v>646.2135925865364</v>
       </c>
       <c r="V22" t="n">
-        <v>268.2076775571585</v>
+        <v>646.2135925865364</v>
       </c>
       <c r="W22" t="n">
-        <v>268.2076775571585</v>
+        <v>559.8866144454927</v>
       </c>
       <c r="X22" t="n">
-        <v>268.2076775571585</v>
+        <v>559.8866144454927</v>
       </c>
       <c r="Y22" t="n">
-        <v>50.71143199091319</v>
+        <v>559.8866144454927</v>
       </c>
     </row>
     <row r="23">
@@ -5965,22 +5965,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>797.9061476574645</v>
+        <v>1208.586845871329</v>
       </c>
       <c r="C23" t="n">
-        <v>797.9061476574645</v>
+        <v>1208.586845871329</v>
       </c>
       <c r="D23" t="n">
-        <v>437.699346895244</v>
+        <v>1208.586845871329</v>
       </c>
       <c r="E23" t="n">
-        <v>50.71143199091319</v>
+        <v>1208.586845871329</v>
       </c>
       <c r="F23" t="n">
-        <v>50.71143199091319</v>
+        <v>797.1789029616918</v>
       </c>
       <c r="G23" t="n">
-        <v>50.71143199091319</v>
+        <v>379.3913075309111</v>
       </c>
       <c r="H23" t="n">
         <v>50.71143199091319</v>
@@ -5989,19 +5989,19 @@
         <v>50.71143199091319</v>
       </c>
       <c r="J23" t="n">
-        <v>154.6737472370293</v>
+        <v>154.6737472370296</v>
       </c>
       <c r="K23" t="n">
-        <v>432.762901072481</v>
+        <v>432.7629010724813</v>
       </c>
       <c r="L23" t="n">
-        <v>829.7261648535821</v>
+        <v>829.7261648535823</v>
       </c>
       <c r="M23" t="n">
         <v>1286.636576300462</v>
       </c>
       <c r="N23" t="n">
-        <v>1735.423100897411</v>
+        <v>1735.42310089741</v>
       </c>
       <c r="O23" t="n">
         <v>2113.071138623965</v>
@@ -6013,28 +6013,28 @@
         <v>2535.571599545659</v>
       </c>
       <c r="R23" t="n">
-        <v>2471.287047559323</v>
+        <v>2535.571599545659</v>
       </c>
       <c r="S23" t="n">
-        <v>2292.00071659582</v>
+        <v>2535.571599545659</v>
       </c>
       <c r="T23" t="n">
-        <v>2072.288667455001</v>
+        <v>2315.859550404841</v>
       </c>
       <c r="U23" t="n">
-        <v>1818.371334220299</v>
+        <v>2061.942217170138</v>
       </c>
       <c r="V23" t="n">
-        <v>1486.519595308663</v>
+        <v>2061.942217170138</v>
       </c>
       <c r="W23" t="n">
-        <v>1132.448770055577</v>
+        <v>1707.871391917053</v>
       </c>
       <c r="X23" t="n">
-        <v>797.9061476574645</v>
+        <v>1333.263716026983</v>
       </c>
       <c r="Y23" t="n">
-        <v>797.9061476574645</v>
+        <v>1208.586845871329</v>
       </c>
     </row>
     <row r="24">
@@ -6044,22 +6044,22 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>832.9084402786798</v>
+        <v>834.6762319666548</v>
       </c>
       <c r="C24" t="n">
-        <v>660.1553252004969</v>
+        <v>661.9231168884719</v>
       </c>
       <c r="D24" t="n">
-        <v>512.5670185594408</v>
+        <v>514.3348102474158</v>
       </c>
       <c r="E24" t="n">
-        <v>396.6014461979139</v>
+        <v>356.7252812502705</v>
       </c>
       <c r="F24" t="n">
-        <v>251.6456562145308</v>
+        <v>356.7252812502705</v>
       </c>
       <c r="G24" t="n">
-        <v>114.9213613606679</v>
+        <v>220.0009863964076</v>
       </c>
       <c r="H24" t="n">
         <v>114.9213613606679</v>
@@ -6068,19 +6068,19 @@
         <v>50.71143199091319</v>
       </c>
       <c r="J24" t="n">
-        <v>120.4127199202217</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="K24" t="n">
-        <v>366.1489360814929</v>
+        <v>181.9669871305373</v>
       </c>
       <c r="L24" t="n">
-        <v>757.4212114061545</v>
+        <v>573.239262455199</v>
       </c>
       <c r="M24" t="n">
-        <v>1266.817695663801</v>
+        <v>1082.635746712845</v>
       </c>
       <c r="N24" t="n">
-        <v>1805.095121106633</v>
+        <v>1620.913172155677</v>
       </c>
       <c r="O24" t="n">
         <v>2045.703836711752</v>
@@ -6092,28 +6092,28 @@
         <v>2535.571599545659</v>
       </c>
       <c r="R24" t="n">
-        <v>2481.698134656769</v>
+        <v>2483.465926344744</v>
       </c>
       <c r="S24" t="n">
-        <v>2323.528421865784</v>
+        <v>2325.296213553759</v>
       </c>
       <c r="T24" t="n">
-        <v>2125.854233501242</v>
+        <v>2127.622025189217</v>
       </c>
       <c r="U24" t="n">
-        <v>1898.972060912078</v>
+        <v>1900.739852600053</v>
       </c>
       <c r="V24" t="n">
-        <v>1664.720817437679</v>
+        <v>1666.488609125654</v>
       </c>
       <c r="W24" t="n">
-        <v>1412.206325771012</v>
+        <v>1413.974117458987</v>
       </c>
       <c r="X24" t="n">
-        <v>1205.67942717659</v>
+        <v>1207.447218864565</v>
       </c>
       <c r="Y24" t="n">
-        <v>999.9509914002402</v>
+        <v>1001.718783088215</v>
       </c>
     </row>
     <row r="25">
@@ -6123,22 +6123,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>50.71143199091319</v>
+        <v>377.9893995477012</v>
       </c>
       <c r="C25" t="n">
-        <v>50.71143199091319</v>
+        <v>208.9625784050725</v>
       </c>
       <c r="D25" t="n">
-        <v>50.71143199091319</v>
+        <v>208.9625784050725</v>
       </c>
       <c r="E25" t="n">
-        <v>50.71143199091319</v>
+        <v>208.9625784050725</v>
       </c>
       <c r="F25" t="n">
-        <v>50.71143199091319</v>
+        <v>208.9625784050725</v>
       </c>
       <c r="G25" t="n">
-        <v>50.71143199091319</v>
+        <v>208.9625784050725</v>
       </c>
       <c r="H25" t="n">
         <v>50.71143199091319</v>
@@ -6168,31 +6168,31 @@
         <v>679.5420961591335</v>
       </c>
       <c r="Q25" t="n">
-        <v>646.2135925865364</v>
+        <v>679.5420961591335</v>
       </c>
       <c r="R25" t="n">
-        <v>646.2135925865364</v>
+        <v>679.5420961591335</v>
       </c>
       <c r="S25" t="n">
-        <v>499.8981864110752</v>
+        <v>679.5420961591335</v>
       </c>
       <c r="T25" t="n">
-        <v>271.6696884230023</v>
+        <v>559.8921182251596</v>
       </c>
       <c r="U25" t="n">
-        <v>271.6696884230023</v>
+        <v>559.8921182251596</v>
       </c>
       <c r="V25" t="n">
-        <v>271.6696884230023</v>
+        <v>559.8921182251596</v>
       </c>
       <c r="W25" t="n">
-        <v>271.6696884230023</v>
+        <v>559.8921182251596</v>
       </c>
       <c r="X25" t="n">
-        <v>271.6696884230023</v>
+        <v>559.8921182251596</v>
       </c>
       <c r="Y25" t="n">
-        <v>50.71143199091319</v>
+        <v>559.8921182251596</v>
       </c>
     </row>
     <row r="26">
@@ -6202,25 +6202,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1140.992727628908</v>
+        <v>1738.091664490113</v>
       </c>
       <c r="C26" t="n">
-        <v>770.3007117915923</v>
+        <v>1367.399648652797</v>
       </c>
       <c r="D26" t="n">
-        <v>770.3007117915923</v>
+        <v>1367.399648652797</v>
       </c>
       <c r="E26" t="n">
-        <v>383.3127968872615</v>
+        <v>1367.399648652797</v>
       </c>
       <c r="F26" t="n">
-        <v>383.3127968872615</v>
+        <v>955.9917057431599</v>
       </c>
       <c r="G26" t="n">
-        <v>50.71143199091319</v>
+        <v>538.2041103123792</v>
       </c>
       <c r="H26" t="n">
-        <v>50.71143199091319</v>
+        <v>209.5242347723812</v>
       </c>
       <c r="I26" t="n">
         <v>50.71143199091319</v>
@@ -6256,22 +6256,22 @@
         <v>2356.285268582156</v>
       </c>
       <c r="T26" t="n">
-        <v>2136.573219441338</v>
+        <v>2356.285268582156</v>
       </c>
       <c r="U26" t="n">
-        <v>1882.655886206635</v>
+        <v>2356.285268582156</v>
       </c>
       <c r="V26" t="n">
-        <v>1882.655886206635</v>
+        <v>2356.285268582156</v>
       </c>
       <c r="W26" t="n">
-        <v>1528.58506095355</v>
+        <v>2356.285268582156</v>
       </c>
       <c r="X26" t="n">
-        <v>1528.58506095355</v>
+        <v>2128.684666259038</v>
       </c>
       <c r="Y26" t="n">
-        <v>1528.58506095355</v>
+        <v>1738.091664490113</v>
       </c>
     </row>
     <row r="27">
@@ -6281,22 +6281,22 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>832.9084402786798</v>
+        <v>979.6320219500381</v>
       </c>
       <c r="C27" t="n">
-        <v>660.1553252004969</v>
+        <v>806.8789068718552</v>
       </c>
       <c r="D27" t="n">
-        <v>512.5670185594408</v>
+        <v>659.290600230799</v>
       </c>
       <c r="E27" t="n">
-        <v>354.9574895622956</v>
+        <v>501.6810712336537</v>
       </c>
       <c r="F27" t="n">
-        <v>251.6456562145308</v>
+        <v>356.7252812502705</v>
       </c>
       <c r="G27" t="n">
-        <v>114.9213613606679</v>
+        <v>220.0009863964076</v>
       </c>
       <c r="H27" t="n">
         <v>114.9213613606679</v>
@@ -6305,25 +6305,25 @@
         <v>50.71143199091319</v>
       </c>
       <c r="J27" t="n">
-        <v>120.4127199202217</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="K27" t="n">
-        <v>366.1489360814929</v>
+        <v>296.4476481521845</v>
       </c>
       <c r="L27" t="n">
-        <v>573.239262455199</v>
+        <v>687.7199234768461</v>
       </c>
       <c r="M27" t="n">
-        <v>1082.635746712845</v>
+        <v>1197.116407734492</v>
       </c>
       <c r="N27" t="n">
-        <v>1620.913172155677</v>
+        <v>1735.393833177324</v>
       </c>
       <c r="O27" t="n">
-        <v>2045.703836711752</v>
+        <v>2160.184497733399</v>
       </c>
       <c r="P27" t="n">
-        <v>2370.209254145837</v>
+        <v>2484.689915167484</v>
       </c>
       <c r="Q27" t="n">
         <v>2535.571599545659</v>
@@ -6332,25 +6332,25 @@
         <v>2481.698134656769</v>
       </c>
       <c r="S27" t="n">
-        <v>2323.528421865784</v>
+        <v>2470.252003537142</v>
       </c>
       <c r="T27" t="n">
-        <v>2125.854233501242</v>
+        <v>2272.5778151726</v>
       </c>
       <c r="U27" t="n">
-        <v>1898.972060912078</v>
+        <v>2045.695642583436</v>
       </c>
       <c r="V27" t="n">
-        <v>1664.720817437679</v>
+        <v>1811.444399109037</v>
       </c>
       <c r="W27" t="n">
-        <v>1412.206325771012</v>
+        <v>1558.92990744237</v>
       </c>
       <c r="X27" t="n">
-        <v>1205.67942717659</v>
+        <v>1352.403008847948</v>
       </c>
       <c r="Y27" t="n">
-        <v>999.9509914002402</v>
+        <v>1146.674573071598</v>
       </c>
     </row>
     <row r="28">
@@ -6360,16 +6360,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>50.71143199091319</v>
+        <v>169.6014388306651</v>
       </c>
       <c r="C28" t="n">
-        <v>50.71143199091319</v>
+        <v>169.6014388306651</v>
       </c>
       <c r="D28" t="n">
-        <v>50.71143199091319</v>
+        <v>169.6014388306651</v>
       </c>
       <c r="E28" t="n">
-        <v>50.71143199091319</v>
+        <v>169.6014388306651</v>
       </c>
       <c r="F28" t="n">
         <v>50.71143199091319</v>
@@ -6405,31 +6405,31 @@
         <v>679.5420961591335</v>
       </c>
       <c r="Q28" t="n">
-        <v>646.2135925865364</v>
+        <v>679.5420961591335</v>
       </c>
       <c r="R28" t="n">
-        <v>496.4361755452314</v>
+        <v>679.5420961591335</v>
       </c>
       <c r="S28" t="n">
-        <v>496.4361755452314</v>
+        <v>679.5420961591335</v>
       </c>
       <c r="T28" t="n">
-        <v>496.4361755452314</v>
+        <v>679.5420961591335</v>
       </c>
       <c r="U28" t="n">
-        <v>496.4361755452314</v>
+        <v>679.5420961591335</v>
       </c>
       <c r="V28" t="n">
-        <v>496.4361755452314</v>
+        <v>679.5420961591335</v>
       </c>
       <c r="W28" t="n">
-        <v>207.4537746488521</v>
+        <v>390.5596952627542</v>
       </c>
       <c r="X28" t="n">
-        <v>207.4537746488521</v>
+        <v>390.5596952627542</v>
       </c>
       <c r="Y28" t="n">
-        <v>207.4537746488521</v>
+        <v>169.6014388306651</v>
       </c>
     </row>
     <row r="29">
@@ -6439,19 +6439,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>803.4524250390716</v>
+        <v>1327.410966276248</v>
       </c>
       <c r="C29" t="n">
-        <v>803.4524250390716</v>
+        <v>956.7189504389327</v>
       </c>
       <c r="D29" t="n">
-        <v>627.3118302031619</v>
+        <v>596.5121496767121</v>
       </c>
       <c r="E29" t="n">
-        <v>627.3118302031619</v>
+        <v>209.5242347723812</v>
       </c>
       <c r="F29" t="n">
-        <v>627.3118302031619</v>
+        <v>209.5242347723812</v>
       </c>
       <c r="G29" t="n">
         <v>209.5242347723812</v>
@@ -6493,22 +6493,22 @@
         <v>2471.287047559323</v>
       </c>
       <c r="T29" t="n">
-        <v>2251.574998418504</v>
+        <v>2471.287047559323</v>
       </c>
       <c r="U29" t="n">
-        <v>2251.574998418504</v>
+        <v>2471.287047559323</v>
       </c>
       <c r="V29" t="n">
-        <v>1919.723259506869</v>
+        <v>2139.435308647688</v>
       </c>
       <c r="W29" t="n">
-        <v>1565.652434253783</v>
+        <v>1785.364483394602</v>
       </c>
       <c r="X29" t="n">
-        <v>1191.044758363713</v>
+        <v>1410.756807504532</v>
       </c>
       <c r="Y29" t="n">
-        <v>1191.044758363713</v>
+        <v>1410.756807504532</v>
       </c>
     </row>
     <row r="30">
@@ -6518,49 +6518,49 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>832.9084402786798</v>
+        <v>979.6320219500381</v>
       </c>
       <c r="C30" t="n">
-        <v>660.1553252004969</v>
+        <v>806.8789068718552</v>
       </c>
       <c r="D30" t="n">
-        <v>512.5670185594408</v>
+        <v>659.290600230799</v>
       </c>
       <c r="E30" t="n">
-        <v>354.9574895622956</v>
+        <v>501.6810712336537</v>
       </c>
       <c r="F30" t="n">
-        <v>210.0016995789124</v>
+        <v>356.7252812502705</v>
       </c>
       <c r="G30" t="n">
-        <v>73.27740472504951</v>
+        <v>220.0009863964076</v>
       </c>
       <c r="H30" t="n">
-        <v>50.71143199091319</v>
+        <v>114.9213613606679</v>
       </c>
       <c r="I30" t="n">
         <v>50.71143199091319</v>
       </c>
       <c r="J30" t="n">
-        <v>120.4127199202217</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="K30" t="n">
-        <v>366.1489360814929</v>
+        <v>296.4476481521845</v>
       </c>
       <c r="L30" t="n">
-        <v>573.239262455199</v>
+        <v>687.7199234768461</v>
       </c>
       <c r="M30" t="n">
-        <v>1082.635746712845</v>
+        <v>1197.116407734492</v>
       </c>
       <c r="N30" t="n">
-        <v>1620.913172155677</v>
+        <v>1735.393833177324</v>
       </c>
       <c r="O30" t="n">
-        <v>2045.703836711752</v>
+        <v>2160.184497733399</v>
       </c>
       <c r="P30" t="n">
-        <v>2370.209254145837</v>
+        <v>2484.689915167484</v>
       </c>
       <c r="Q30" t="n">
         <v>2535.571599545659</v>
@@ -6587,7 +6587,7 @@
         <v>1205.67942717659</v>
       </c>
       <c r="Y30" t="n">
-        <v>999.9509914002402</v>
+        <v>1146.674573071598</v>
       </c>
     </row>
     <row r="31">
@@ -6642,31 +6642,31 @@
         <v>679.5420961591335</v>
       </c>
       <c r="Q31" t="n">
-        <v>646.2135925865364</v>
+        <v>679.5420961591335</v>
       </c>
       <c r="R31" t="n">
-        <v>646.2135925865364</v>
+        <v>679.5420961591335</v>
       </c>
       <c r="S31" t="n">
-        <v>646.2135925865364</v>
+        <v>679.5420961591335</v>
       </c>
       <c r="T31" t="n">
-        <v>646.2135925865364</v>
+        <v>451.3135981710606</v>
       </c>
       <c r="U31" t="n">
-        <v>488.1054143723505</v>
+        <v>451.3135981710606</v>
       </c>
       <c r="V31" t="n">
-        <v>232.6141506683716</v>
+        <v>195.8223344670816</v>
       </c>
       <c r="W31" t="n">
-        <v>232.6141506683716</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="X31" t="n">
-        <v>232.6141506683716</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="Y31" t="n">
-        <v>232.6141506683716</v>
+        <v>50.71143199091319</v>
       </c>
     </row>
     <row r="32">
@@ -6676,37 +6676,37 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1414.128478760777</v>
+        <v>1966.266776612976</v>
       </c>
       <c r="C32" t="n">
-        <v>1414.128478760777</v>
+        <v>1595.57476077566</v>
       </c>
       <c r="D32" t="n">
-        <v>1414.128478760777</v>
+        <v>1595.57476077566</v>
       </c>
       <c r="E32" t="n">
-        <v>1027.140563856446</v>
+        <v>1208.586845871329</v>
       </c>
       <c r="F32" t="n">
-        <v>615.7326209468088</v>
+        <v>797.1789029616918</v>
       </c>
       <c r="G32" t="n">
-        <v>209.5242347723812</v>
+        <v>379.3913075309111</v>
       </c>
       <c r="H32" t="n">
-        <v>209.5242347723812</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="I32" t="n">
         <v>50.71143199091319</v>
       </c>
       <c r="J32" t="n">
-        <v>154.6737472370296</v>
+        <v>154.6737472370293</v>
       </c>
       <c r="K32" t="n">
-        <v>432.7629010724813</v>
+        <v>432.762901072481</v>
       </c>
       <c r="L32" t="n">
-        <v>829.7261648535825</v>
+        <v>829.7261648535821</v>
       </c>
       <c r="M32" t="n">
         <v>1286.636576300462</v>
@@ -6727,25 +6727,25 @@
         <v>2535.571599545659</v>
       </c>
       <c r="S32" t="n">
-        <v>2356.285268582156</v>
+        <v>2535.571599545659</v>
       </c>
       <c r="T32" t="n">
-        <v>2136.573219441338</v>
+        <v>2535.571599545659</v>
       </c>
       <c r="U32" t="n">
-        <v>2136.573219441338</v>
+        <v>2535.571599545659</v>
       </c>
       <c r="V32" t="n">
-        <v>1804.721480529702</v>
+        <v>2535.571599545659</v>
       </c>
       <c r="W32" t="n">
-        <v>1804.721480529702</v>
+        <v>2356.859778381901</v>
       </c>
       <c r="X32" t="n">
-        <v>1804.721480529702</v>
+        <v>2356.859778381901</v>
       </c>
       <c r="Y32" t="n">
-        <v>1414.128478760777</v>
+        <v>1966.266776612976</v>
       </c>
     </row>
     <row r="33">
@@ -6755,43 +6755,43 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>832.9084402786798</v>
+        <v>979.6320219500381</v>
       </c>
       <c r="C33" t="n">
-        <v>660.1553252004969</v>
+        <v>806.8789068718552</v>
       </c>
       <c r="D33" t="n">
-        <v>512.5670185594408</v>
+        <v>659.290600230799</v>
       </c>
       <c r="E33" t="n">
-        <v>354.9574895622956</v>
+        <v>501.6810712336537</v>
       </c>
       <c r="F33" t="n">
-        <v>354.9574895622956</v>
+        <v>356.7252812502705</v>
       </c>
       <c r="G33" t="n">
-        <v>218.2331947084326</v>
+        <v>220.0009863964076</v>
       </c>
       <c r="H33" t="n">
-        <v>113.1535696726929</v>
+        <v>114.9213613606679</v>
       </c>
       <c r="I33" t="n">
         <v>50.71143199091319</v>
       </c>
       <c r="J33" t="n">
-        <v>120.4127199202217</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="K33" t="n">
-        <v>366.1489360814929</v>
+        <v>181.9669871305373</v>
       </c>
       <c r="L33" t="n">
-        <v>757.4212114061545</v>
+        <v>573.239262455199</v>
       </c>
       <c r="M33" t="n">
-        <v>1266.817695663801</v>
+        <v>1082.635746712845</v>
       </c>
       <c r="N33" t="n">
-        <v>1805.095121106633</v>
+        <v>1620.913172155677</v>
       </c>
       <c r="O33" t="n">
         <v>2045.703836711752</v>
@@ -6834,10 +6834,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>50.71143199091319</v>
+        <v>370.2489263805311</v>
       </c>
       <c r="C34" t="n">
-        <v>50.71143199091319</v>
+        <v>201.2221052379024</v>
       </c>
       <c r="D34" t="n">
         <v>50.71143199091319</v>
@@ -6879,31 +6879,31 @@
         <v>679.5420961591335</v>
       </c>
       <c r="Q34" t="n">
-        <v>646.2135925865364</v>
+        <v>679.5420961591335</v>
       </c>
       <c r="R34" t="n">
-        <v>646.2135925865364</v>
+        <v>679.5420961591335</v>
       </c>
       <c r="S34" t="n">
-        <v>431.4413288795672</v>
+        <v>679.5420961591335</v>
       </c>
       <c r="T34" t="n">
-        <v>203.2128308914943</v>
+        <v>679.5420961591335</v>
       </c>
       <c r="U34" t="n">
-        <v>203.2128308914943</v>
+        <v>679.5420961591335</v>
       </c>
       <c r="V34" t="n">
-        <v>203.2128308914943</v>
+        <v>679.5420961591335</v>
       </c>
       <c r="W34" t="n">
-        <v>50.71143199091319</v>
+        <v>679.5420961591335</v>
       </c>
       <c r="X34" t="n">
-        <v>50.71143199091319</v>
+        <v>679.5420961591335</v>
       </c>
       <c r="Y34" t="n">
-        <v>50.71143199091319</v>
+        <v>552.1516450579895</v>
       </c>
     </row>
     <row r="35">
@@ -6913,34 +6913,34 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>627.3118302031619</v>
+        <v>879.9069703313312</v>
       </c>
       <c r="C35" t="n">
-        <v>627.3118302031619</v>
+        <v>879.9069703313312</v>
       </c>
       <c r="D35" t="n">
-        <v>627.3118302031619</v>
+        <v>879.9069703313312</v>
       </c>
       <c r="E35" t="n">
-        <v>627.3118302031619</v>
+        <v>879.9069703313312</v>
       </c>
       <c r="F35" t="n">
-        <v>627.3118302031619</v>
+        <v>468.4990274216939</v>
       </c>
       <c r="G35" t="n">
-        <v>209.5242347723812</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="H35" t="n">
-        <v>209.5242347723812</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="I35" t="n">
         <v>50.71143199091319</v>
       </c>
       <c r="J35" t="n">
-        <v>154.6737472370294</v>
+        <v>154.6737472370296</v>
       </c>
       <c r="K35" t="n">
-        <v>432.762901072481</v>
+        <v>432.7629010724813</v>
       </c>
       <c r="L35" t="n">
         <v>829.7261648535823</v>
@@ -6961,28 +6961,28 @@
         <v>2535.571599545659</v>
       </c>
       <c r="R35" t="n">
-        <v>2535.571599545659</v>
+        <v>2471.287047559323</v>
       </c>
       <c r="S35" t="n">
-        <v>2356.285268582156</v>
+        <v>2292.00071659582</v>
       </c>
       <c r="T35" t="n">
-        <v>2136.573219441338</v>
+        <v>2072.288667455001</v>
       </c>
       <c r="U35" t="n">
-        <v>1882.655886206635</v>
+        <v>1818.371334220299</v>
       </c>
       <c r="V35" t="n">
-        <v>1746.583333115243</v>
+        <v>1486.519595308663</v>
       </c>
       <c r="W35" t="n">
-        <v>1392.512507862157</v>
+        <v>1132.448770055577</v>
       </c>
       <c r="X35" t="n">
-        <v>1017.904831972087</v>
+        <v>879.9069703313312</v>
       </c>
       <c r="Y35" t="n">
-        <v>627.3118302031619</v>
+        <v>879.9069703313312</v>
       </c>
     </row>
     <row r="36">
@@ -6992,19 +6992,19 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>832.9084402786798</v>
+        <v>979.6320219500381</v>
       </c>
       <c r="C36" t="n">
-        <v>660.1553252004969</v>
+        <v>806.8789068718552</v>
       </c>
       <c r="D36" t="n">
-        <v>512.5670185594408</v>
+        <v>659.290600230799</v>
       </c>
       <c r="E36" t="n">
-        <v>354.9574895622956</v>
+        <v>501.6810712336537</v>
       </c>
       <c r="F36" t="n">
-        <v>220.0009863964076</v>
+        <v>356.7252812502705</v>
       </c>
       <c r="G36" t="n">
         <v>220.0009863964076</v>
@@ -7016,25 +7016,25 @@
         <v>50.71143199091319</v>
       </c>
       <c r="J36" t="n">
-        <v>120.4127199202217</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="K36" t="n">
-        <v>181.9669871305373</v>
+        <v>296.4476481521845</v>
       </c>
       <c r="L36" t="n">
-        <v>573.239262455199</v>
+        <v>687.7199234768461</v>
       </c>
       <c r="M36" t="n">
-        <v>1082.635746712845</v>
+        <v>1197.116407734492</v>
       </c>
       <c r="N36" t="n">
-        <v>1620.913172155677</v>
+        <v>1735.393833177324</v>
       </c>
       <c r="O36" t="n">
-        <v>2045.703836711752</v>
+        <v>2160.184497733399</v>
       </c>
       <c r="P36" t="n">
-        <v>2370.209254145837</v>
+        <v>2484.689915167484</v>
       </c>
       <c r="Q36" t="n">
         <v>2535.571599545659</v>
@@ -7058,10 +7058,10 @@
         <v>1412.206325771012</v>
       </c>
       <c r="X36" t="n">
-        <v>1205.67942717659</v>
+        <v>1352.403008847948</v>
       </c>
       <c r="Y36" t="n">
-        <v>999.9509914002402</v>
+        <v>1146.674573071598</v>
       </c>
     </row>
     <row r="37">
@@ -7071,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>50.71143199091319</v>
+        <v>635.6635527985809</v>
       </c>
       <c r="C37" t="n">
-        <v>50.71143199091319</v>
+        <v>635.6635527985809</v>
       </c>
       <c r="D37" t="n">
-        <v>50.71143199091319</v>
+        <v>485.1528795515917</v>
       </c>
       <c r="E37" t="n">
-        <v>50.71143199091319</v>
+        <v>336.6936632150269</v>
       </c>
       <c r="F37" t="n">
-        <v>50.71143199091319</v>
+        <v>189.0582880536082</v>
       </c>
       <c r="G37" t="n">
-        <v>50.71143199091319</v>
+        <v>189.0582880536082</v>
       </c>
       <c r="H37" t="n">
-        <v>50.71143199091319</v>
+        <v>189.0582880536082</v>
       </c>
       <c r="I37" t="n">
         <v>50.71143199091319</v>
@@ -7116,31 +7116,31 @@
         <v>679.5420961591335</v>
       </c>
       <c r="Q37" t="n">
-        <v>646.2135925865364</v>
+        <v>679.5420961591335</v>
       </c>
       <c r="R37" t="n">
-        <v>496.4361755452314</v>
+        <v>679.5420961591335</v>
       </c>
       <c r="S37" t="n">
-        <v>281.6639118382623</v>
+        <v>679.5420961591335</v>
       </c>
       <c r="T37" t="n">
-        <v>281.6639118382623</v>
+        <v>679.5420961591335</v>
       </c>
       <c r="U37" t="n">
-        <v>50.71143199091319</v>
+        <v>679.5420961591335</v>
       </c>
       <c r="V37" t="n">
-        <v>50.71143199091319</v>
+        <v>679.5420961591335</v>
       </c>
       <c r="W37" t="n">
-        <v>50.71143199091319</v>
+        <v>679.5420961591335</v>
       </c>
       <c r="X37" t="n">
-        <v>50.71143199091319</v>
+        <v>679.5420961591335</v>
       </c>
       <c r="Y37" t="n">
-        <v>50.71143199091319</v>
+        <v>679.5420961591335</v>
       </c>
     </row>
     <row r="38">
@@ -7150,25 +7150,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1464.300508967213</v>
+        <v>739.5981082931316</v>
       </c>
       <c r="C38" t="n">
-        <v>1093.608493129897</v>
+        <v>739.5981082931316</v>
       </c>
       <c r="D38" t="n">
-        <v>733.4016923676768</v>
+        <v>379.3913075309111</v>
       </c>
       <c r="E38" t="n">
-        <v>346.413777463346</v>
+        <v>379.3913075309111</v>
       </c>
       <c r="F38" t="n">
-        <v>209.5242347723812</v>
+        <v>379.3913075309111</v>
       </c>
       <c r="G38" t="n">
-        <v>209.5242347723812</v>
+        <v>379.3913075309111</v>
       </c>
       <c r="H38" t="n">
-        <v>209.5242347723812</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="I38" t="n">
         <v>50.71143199091319</v>
@@ -7198,28 +7198,28 @@
         <v>2535.571599545659</v>
       </c>
       <c r="R38" t="n">
-        <v>2471.287047559323</v>
+        <v>2535.571599545659</v>
       </c>
       <c r="S38" t="n">
-        <v>2292.00071659582</v>
+        <v>2356.285268582156</v>
       </c>
       <c r="T38" t="n">
-        <v>2072.288667455001</v>
+        <v>2356.285268582156</v>
       </c>
       <c r="U38" t="n">
-        <v>1818.371334220299</v>
+        <v>2102.367935347454</v>
       </c>
       <c r="V38" t="n">
-        <v>1818.371334220299</v>
+        <v>1858.869611205213</v>
       </c>
       <c r="W38" t="n">
-        <v>1464.300508967213</v>
+        <v>1504.798785952127</v>
       </c>
       <c r="X38" t="n">
-        <v>1464.300508967213</v>
+        <v>1130.191110062057</v>
       </c>
       <c r="Y38" t="n">
-        <v>1464.300508967213</v>
+        <v>739.5981082931316</v>
       </c>
     </row>
     <row r="39">
@@ -7229,43 +7229,43 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>832.9084402786798</v>
+        <v>979.6320219500381</v>
       </c>
       <c r="C39" t="n">
-        <v>660.1553252004969</v>
+        <v>806.8789068718552</v>
       </c>
       <c r="D39" t="n">
-        <v>512.5670185594408</v>
+        <v>659.290600230799</v>
       </c>
       <c r="E39" t="n">
-        <v>354.9574895622956</v>
+        <v>501.6810712336537</v>
       </c>
       <c r="F39" t="n">
-        <v>292.5153518805158</v>
+        <v>356.7252812502705</v>
       </c>
       <c r="G39" t="n">
-        <v>155.7910570266529</v>
+        <v>220.0009863964076</v>
       </c>
       <c r="H39" t="n">
-        <v>50.71143199091319</v>
+        <v>114.9213613606679</v>
       </c>
       <c r="I39" t="n">
         <v>50.71143199091319</v>
       </c>
       <c r="J39" t="n">
-        <v>120.4127199202217</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="K39" t="n">
-        <v>366.1489360814929</v>
+        <v>296.4476481521845</v>
       </c>
       <c r="L39" t="n">
-        <v>757.4212114061545</v>
+        <v>687.7199234768461</v>
       </c>
       <c r="M39" t="n">
-        <v>1266.817695663801</v>
+        <v>1197.116407734492</v>
       </c>
       <c r="N39" t="n">
-        <v>1805.095121106633</v>
+        <v>1620.913172155677</v>
       </c>
       <c r="O39" t="n">
         <v>2045.703836711752</v>
@@ -7283,22 +7283,22 @@
         <v>2323.528421865784</v>
       </c>
       <c r="T39" t="n">
-        <v>2125.854233501242</v>
+        <v>2272.5778151726</v>
       </c>
       <c r="U39" t="n">
-        <v>1898.972060912078</v>
+        <v>2045.695642583436</v>
       </c>
       <c r="V39" t="n">
-        <v>1664.720817437679</v>
+        <v>1811.444399109037</v>
       </c>
       <c r="W39" t="n">
-        <v>1412.206325771012</v>
+        <v>1558.92990744237</v>
       </c>
       <c r="X39" t="n">
-        <v>1205.67942717659</v>
+        <v>1352.403008847948</v>
       </c>
       <c r="Y39" t="n">
-        <v>999.9509914002402</v>
+        <v>1146.674573071598</v>
       </c>
     </row>
     <row r="40">
@@ -7308,19 +7308,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>50.71143199091319</v>
+        <v>219.7327493538749</v>
       </c>
       <c r="C40" t="n">
-        <v>50.71143199091319</v>
+        <v>219.7327493538749</v>
       </c>
       <c r="D40" t="n">
-        <v>50.71143199091319</v>
+        <v>219.7327493538749</v>
       </c>
       <c r="E40" t="n">
-        <v>50.71143199091319</v>
+        <v>219.7327493538749</v>
       </c>
       <c r="F40" t="n">
-        <v>50.71143199091319</v>
+        <v>219.7327493538749</v>
       </c>
       <c r="G40" t="n">
         <v>50.71143199091319</v>
@@ -7353,31 +7353,31 @@
         <v>679.5420961591335</v>
       </c>
       <c r="Q40" t="n">
-        <v>646.2135925865364</v>
+        <v>679.5420961591335</v>
       </c>
       <c r="R40" t="n">
-        <v>496.4361755452314</v>
+        <v>529.7646791178286</v>
       </c>
       <c r="S40" t="n">
-        <v>281.6639118382623</v>
+        <v>314.9924154108594</v>
       </c>
       <c r="T40" t="n">
-        <v>281.6639118382623</v>
+        <v>314.9924154108594</v>
       </c>
       <c r="U40" t="n">
-        <v>281.6639118382623</v>
+        <v>314.9924154108594</v>
       </c>
       <c r="V40" t="n">
-        <v>281.6639118382623</v>
+        <v>314.9924154108594</v>
       </c>
       <c r="W40" t="n">
-        <v>50.71143199091319</v>
+        <v>219.7327493538749</v>
       </c>
       <c r="X40" t="n">
-        <v>50.71143199091319</v>
+        <v>219.7327493538749</v>
       </c>
       <c r="Y40" t="n">
-        <v>50.71143199091319</v>
+        <v>219.7327493538749</v>
       </c>
     </row>
     <row r="41">
@@ -7387,25 +7387,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1219.799305642197</v>
+        <v>898.4109110745998</v>
       </c>
       <c r="C41" t="n">
-        <v>849.1072898048812</v>
+        <v>898.4109110745998</v>
       </c>
       <c r="D41" t="n">
-        <v>849.1072898048812</v>
+        <v>538.2041103123792</v>
       </c>
       <c r="E41" t="n">
-        <v>462.1193749005504</v>
+        <v>538.2041103123792</v>
       </c>
       <c r="F41" t="n">
-        <v>50.71143199091319</v>
+        <v>538.2041103123792</v>
       </c>
       <c r="G41" t="n">
-        <v>50.71143199091319</v>
+        <v>538.2041103123792</v>
       </c>
       <c r="H41" t="n">
-        <v>50.71143199091319</v>
+        <v>209.5242347723812</v>
       </c>
       <c r="I41" t="n">
         <v>50.71143199091319</v>
@@ -7417,7 +7417,7 @@
         <v>432.7629010724813</v>
       </c>
       <c r="L41" t="n">
-        <v>829.7261648535823</v>
+        <v>829.7261648535825</v>
       </c>
       <c r="M41" t="n">
         <v>1286.636576300462</v>
@@ -7435,28 +7435,28 @@
         <v>2535.571599545659</v>
       </c>
       <c r="R41" t="n">
-        <v>2471.287047559323</v>
+        <v>2535.571599545659</v>
       </c>
       <c r="S41" t="n">
-        <v>2292.00071659582</v>
+        <v>2356.285268582156</v>
       </c>
       <c r="T41" t="n">
-        <v>2180.176053678606</v>
+        <v>2136.573219441338</v>
       </c>
       <c r="U41" t="n">
-        <v>1926.258720443903</v>
+        <v>1882.655886206635</v>
       </c>
       <c r="V41" t="n">
-        <v>1594.406981532267</v>
+        <v>1882.655886206635</v>
       </c>
       <c r="W41" t="n">
-        <v>1594.406981532267</v>
+        <v>1528.58506095355</v>
       </c>
       <c r="X41" t="n">
-        <v>1219.799305642197</v>
+        <v>1153.977385063479</v>
       </c>
       <c r="Y41" t="n">
-        <v>1219.799305642197</v>
+        <v>898.4109110745998</v>
       </c>
     </row>
     <row r="42">
@@ -7466,25 +7466,25 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>832.9084402786798</v>
+        <v>915.4220925802833</v>
       </c>
       <c r="C42" t="n">
-        <v>660.1553252004969</v>
+        <v>742.6689775021005</v>
       </c>
       <c r="D42" t="n">
-        <v>512.5670185594408</v>
+        <v>595.0806708610443</v>
       </c>
       <c r="E42" t="n">
-        <v>396.6014461979139</v>
+        <v>437.471141863899</v>
       </c>
       <c r="F42" t="n">
-        <v>251.6456562145308</v>
+        <v>292.5153518805158</v>
       </c>
       <c r="G42" t="n">
-        <v>114.9213613606679</v>
+        <v>155.7910570266529</v>
       </c>
       <c r="H42" t="n">
-        <v>114.9213613606679</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="I42" t="n">
         <v>50.71143199091319</v>
@@ -7502,7 +7502,7 @@
         <v>1266.817695663801</v>
       </c>
       <c r="N42" t="n">
-        <v>1805.095121106633</v>
+        <v>1620.913172155677</v>
       </c>
       <c r="O42" t="n">
         <v>2045.703836711752</v>
@@ -7514,28 +7514,28 @@
         <v>2535.571599545659</v>
       </c>
       <c r="R42" t="n">
-        <v>2481.698134656769</v>
+        <v>2535.571599545659</v>
       </c>
       <c r="S42" t="n">
-        <v>2323.528421865784</v>
+        <v>2377.401886754675</v>
       </c>
       <c r="T42" t="n">
-        <v>2125.854233501242</v>
+        <v>2179.727698390133</v>
       </c>
       <c r="U42" t="n">
-        <v>1898.972060912078</v>
+        <v>1952.845525800969</v>
       </c>
       <c r="V42" t="n">
-        <v>1664.720817437679</v>
+        <v>1718.59428232657</v>
       </c>
       <c r="W42" t="n">
-        <v>1412.206325771012</v>
+        <v>1494.719978072616</v>
       </c>
       <c r="X42" t="n">
-        <v>1205.67942717659</v>
+        <v>1288.193079478193</v>
       </c>
       <c r="Y42" t="n">
-        <v>999.9509914002402</v>
+        <v>1082.464643701844</v>
       </c>
     </row>
     <row r="43">
@@ -7545,25 +7545,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>50.71143199091319</v>
+        <v>494.9448096291862</v>
       </c>
       <c r="C43" t="n">
-        <v>50.71143199091319</v>
+        <v>494.9448096291862</v>
       </c>
       <c r="D43" t="n">
-        <v>50.71143199091319</v>
+        <v>494.9448096291862</v>
       </c>
       <c r="E43" t="n">
-        <v>50.71143199091319</v>
+        <v>494.9448096291862</v>
       </c>
       <c r="F43" t="n">
-        <v>50.71143199091319</v>
+        <v>347.3094344677676</v>
       </c>
       <c r="G43" t="n">
-        <v>50.71143199091319</v>
+        <v>347.3094344677676</v>
       </c>
       <c r="H43" t="n">
-        <v>50.71143199091319</v>
+        <v>189.0582880536082</v>
       </c>
       <c r="I43" t="n">
         <v>50.71143199091319</v>
@@ -7590,31 +7590,31 @@
         <v>679.5420961591335</v>
       </c>
       <c r="Q43" t="n">
-        <v>646.2135925865364</v>
+        <v>679.5420961591335</v>
       </c>
       <c r="R43" t="n">
-        <v>646.2135925865364</v>
+        <v>676.8475283066447</v>
       </c>
       <c r="S43" t="n">
-        <v>646.2135925865364</v>
+        <v>676.8475283066447</v>
       </c>
       <c r="T43" t="n">
-        <v>628.6047496418601</v>
+        <v>676.8475283066447</v>
       </c>
       <c r="U43" t="n">
-        <v>339.6938328872925</v>
+        <v>676.8475283066447</v>
       </c>
       <c r="V43" t="n">
-        <v>339.6938328872925</v>
+        <v>676.8475283066447</v>
       </c>
       <c r="W43" t="n">
-        <v>50.71143199091319</v>
+        <v>676.8475283066447</v>
       </c>
       <c r="X43" t="n">
-        <v>50.71143199091319</v>
+        <v>676.8475283066447</v>
       </c>
       <c r="Y43" t="n">
-        <v>50.71143199091319</v>
+        <v>676.8475283066447</v>
       </c>
     </row>
     <row r="44">
@@ -7624,22 +7624,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>410.9182327531338</v>
+        <v>766.3792224352419</v>
       </c>
       <c r="C44" t="n">
-        <v>410.9182327531338</v>
+        <v>766.3792224352419</v>
       </c>
       <c r="D44" t="n">
-        <v>50.71143199091319</v>
+        <v>766.3792224352419</v>
       </c>
       <c r="E44" t="n">
-        <v>50.71143199091319</v>
+        <v>379.3913075309111</v>
       </c>
       <c r="F44" t="n">
-        <v>50.71143199091319</v>
+        <v>379.3913075309111</v>
       </c>
       <c r="G44" t="n">
-        <v>50.71143199091319</v>
+        <v>379.3913075309111</v>
       </c>
       <c r="H44" t="n">
         <v>50.71143199091319</v>
@@ -7648,13 +7648,13 @@
         <v>50.71143199091319</v>
       </c>
       <c r="J44" t="n">
-        <v>154.6737472370293</v>
+        <v>154.6737472370296</v>
       </c>
       <c r="K44" t="n">
-        <v>432.762901072481</v>
+        <v>432.7629010724813</v>
       </c>
       <c r="L44" t="n">
-        <v>829.7261648535821</v>
+        <v>829.7261648535823</v>
       </c>
       <c r="M44" t="n">
         <v>1286.636576300462</v>
@@ -7678,22 +7678,22 @@
         <v>2356.285268582156</v>
       </c>
       <c r="T44" t="n">
-        <v>2356.285268582156</v>
+        <v>2139.568058582026</v>
       </c>
       <c r="U44" t="n">
-        <v>2102.367935347454</v>
+        <v>1885.650725347323</v>
       </c>
       <c r="V44" t="n">
-        <v>1917.782068989856</v>
+        <v>1885.650725347323</v>
       </c>
       <c r="W44" t="n">
-        <v>1563.71124373677</v>
+        <v>1531.579900094237</v>
       </c>
       <c r="X44" t="n">
-        <v>1189.1035678467</v>
+        <v>1156.972224204167</v>
       </c>
       <c r="Y44" t="n">
-        <v>798.5105660777753</v>
+        <v>766.3792224352419</v>
       </c>
     </row>
     <row r="45">
@@ -7703,19 +7703,19 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>979.6320219500381</v>
+        <v>832.9084402786798</v>
       </c>
       <c r="C45" t="n">
-        <v>806.8789068718552</v>
+        <v>670.1546120179921</v>
       </c>
       <c r="D45" t="n">
-        <v>659.290600230799</v>
+        <v>522.566305376936</v>
       </c>
       <c r="E45" t="n">
-        <v>501.6810712336537</v>
+        <v>364.9567763797908</v>
       </c>
       <c r="F45" t="n">
-        <v>356.7252812502705</v>
+        <v>220.0009863964076</v>
       </c>
       <c r="G45" t="n">
         <v>220.0009863964076</v>
@@ -7730,13 +7730,13 @@
         <v>120.4127199202217</v>
       </c>
       <c r="K45" t="n">
-        <v>181.9669871305373</v>
+        <v>366.1489360814929</v>
       </c>
       <c r="L45" t="n">
-        <v>573.239262455199</v>
+        <v>757.4212114061545</v>
       </c>
       <c r="M45" t="n">
-        <v>1082.635746712845</v>
+        <v>1266.817695663801</v>
       </c>
       <c r="N45" t="n">
         <v>1620.913172155677</v>
@@ -7751,28 +7751,28 @@
         <v>2535.571599545659</v>
       </c>
       <c r="R45" t="n">
-        <v>2535.571599545659</v>
+        <v>2481.698134656769</v>
       </c>
       <c r="S45" t="n">
-        <v>2377.401886754675</v>
+        <v>2323.528421865784</v>
       </c>
       <c r="T45" t="n">
-        <v>2179.727698390133</v>
+        <v>2125.854233501242</v>
       </c>
       <c r="U45" t="n">
-        <v>1952.845525800969</v>
+        <v>1898.972060912078</v>
       </c>
       <c r="V45" t="n">
-        <v>1811.444399109037</v>
+        <v>1664.720817437679</v>
       </c>
       <c r="W45" t="n">
-        <v>1558.92990744237</v>
+        <v>1412.206325771012</v>
       </c>
       <c r="X45" t="n">
-        <v>1352.403008847948</v>
+        <v>1205.67942717659</v>
       </c>
       <c r="Y45" t="n">
-        <v>1146.674573071598</v>
+        <v>999.9509914002402</v>
       </c>
     </row>
     <row r="46">
@@ -7782,19 +7782,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>50.71143199091319</v>
+        <v>236.5413344640914</v>
       </c>
       <c r="C46" t="n">
-        <v>50.71143199091319</v>
+        <v>236.5413344640914</v>
       </c>
       <c r="D46" t="n">
-        <v>50.71143199091319</v>
+        <v>236.5413344640914</v>
       </c>
       <c r="E46" t="n">
-        <v>50.71143199091319</v>
+        <v>236.5413344640914</v>
       </c>
       <c r="F46" t="n">
-        <v>50.71143199091319</v>
+        <v>219.7327493538749</v>
       </c>
       <c r="G46" t="n">
         <v>50.71143199091319</v>
@@ -7833,25 +7833,25 @@
         <v>679.5420961591335</v>
       </c>
       <c r="S46" t="n">
-        <v>499.8981864110752</v>
+        <v>464.7698324521643</v>
       </c>
       <c r="T46" t="n">
-        <v>271.6696884230023</v>
+        <v>236.5413344640914</v>
       </c>
       <c r="U46" t="n">
-        <v>271.6696884230023</v>
+        <v>236.5413344640914</v>
       </c>
       <c r="V46" t="n">
-        <v>271.6696884230023</v>
+        <v>236.5413344640914</v>
       </c>
       <c r="W46" t="n">
-        <v>271.6696884230023</v>
+        <v>236.5413344640914</v>
       </c>
       <c r="X46" t="n">
-        <v>271.6696884230023</v>
+        <v>236.5413344640914</v>
       </c>
       <c r="Y46" t="n">
-        <v>50.71143199091319</v>
+        <v>236.5413344640914</v>
       </c>
     </row>
   </sheetData>
@@ -8063,16 +8063,16 @@
         <v>134.395403</v>
       </c>
       <c r="L3" t="n">
-        <v>385.6739591155975</v>
+        <v>135.0905202853774</v>
       </c>
       <c r="M3" t="n">
-        <v>409.7241198125511</v>
+        <v>389.722084928306</v>
       </c>
       <c r="N3" t="n">
         <v>402.3419766228525</v>
       </c>
       <c r="O3" t="n">
-        <v>139.0313383333333</v>
+        <v>409.6168120477987</v>
       </c>
       <c r="P3" t="n">
         <v>331.2012793855346</v>
@@ -8218,7 +8218,7 @@
         <v>175.8604797789567</v>
       </c>
       <c r="K5" t="n">
-        <v>337.1112290740112</v>
+        <v>337.1112290740114</v>
       </c>
       <c r="L5" t="n">
         <v>434.3676631324684</v>
@@ -8236,7 +8236,7 @@
         <v>334.6706564983419</v>
       </c>
       <c r="Q5" t="n">
-        <v>220.8075902863009</v>
+        <v>220.807590286301</v>
       </c>
       <c r="R5" t="n">
         <v>68.34507666790174</v>
@@ -8294,19 +8294,19 @@
         <v>10.53077703452832</v>
       </c>
       <c r="J6" t="n">
-        <v>131.1346767540252</v>
+        <v>123.666686</v>
       </c>
       <c r="K6" t="n">
-        <v>275.0438464930818</v>
+        <v>134.395403</v>
       </c>
       <c r="L6" t="n">
         <v>385.6739591155975</v>
       </c>
       <c r="M6" t="n">
-        <v>272.7740099466066</v>
+        <v>412.8644904155703</v>
       </c>
       <c r="N6" t="n">
-        <v>128.05816928125</v>
+        <v>218.0822725708051</v>
       </c>
       <c r="O6" t="n">
         <v>409.6168120477987</v>
@@ -8315,7 +8315,7 @@
         <v>331.2012793855346</v>
       </c>
       <c r="Q6" t="n">
-        <v>218.4803792452831</v>
+        <v>136.482229733871</v>
       </c>
       <c r="R6" t="n">
         <v>47.34253660377365</v>
@@ -8531,25 +8531,25 @@
         <v>10.53077703452832</v>
       </c>
       <c r="J9" t="n">
-        <v>131.1346767540252</v>
+        <v>123.666686</v>
       </c>
       <c r="K9" t="n">
-        <v>134.395403</v>
+        <v>275.0438464930818</v>
       </c>
       <c r="L9" t="n">
         <v>385.6739591155975</v>
       </c>
       <c r="M9" t="n">
-        <v>412.8644904155703</v>
+        <v>280.2420007006317</v>
       </c>
       <c r="N9" t="n">
-        <v>402.3419766228525</v>
+        <v>128.05816928125</v>
       </c>
       <c r="O9" t="n">
-        <v>139.0313383333333</v>
+        <v>409.6168120477987</v>
       </c>
       <c r="P9" t="n">
-        <v>328.0609087825154</v>
+        <v>331.2012793855346</v>
       </c>
       <c r="Q9" t="n">
         <v>218.4803792452831</v>
@@ -8768,7 +8768,7 @@
         <v>10.53077703452832</v>
       </c>
       <c r="J12" t="n">
-        <v>131.1346767540252</v>
+        <v>112.1249761973247</v>
       </c>
       <c r="K12" t="n">
         <v>275.0438464930818</v>
@@ -8780,7 +8780,7 @@
         <v>484.3332662999999</v>
       </c>
       <c r="N12" t="n">
-        <v>312.4736966395628</v>
+        <v>498.5160693172957</v>
       </c>
       <c r="O12" t="n">
         <v>409.6168120477987</v>
@@ -8789,7 +8789,7 @@
         <v>331.2012793855346</v>
       </c>
       <c r="Q12" t="n">
-        <v>218.4803792452831</v>
+        <v>51.44770712425047</v>
       </c>
       <c r="R12" t="n">
         <v>47.34253660377365</v>
@@ -9008,7 +9008,7 @@
         <v>60.72933541128936</v>
       </c>
       <c r="K15" t="n">
-        <v>275.0438464930818</v>
+        <v>159.4068151580847</v>
       </c>
       <c r="L15" t="n">
         <v>385.6739591155975</v>
@@ -9026,7 +9026,7 @@
         <v>331.2012793855346</v>
       </c>
       <c r="Q15" t="n">
-        <v>102.843347910286</v>
+        <v>218.4803792452831</v>
       </c>
       <c r="R15" t="n">
         <v>47.34253660377365</v>
@@ -9242,7 +9242,7 @@
         <v>10.53077703452832</v>
       </c>
       <c r="J18" t="n">
-        <v>131.1346767540252</v>
+        <v>60.72933541128936</v>
       </c>
       <c r="K18" t="n">
         <v>275.0438464930818</v>
@@ -9257,13 +9257,13 @@
         <v>498.5160693172957</v>
       </c>
       <c r="O18" t="n">
-        <v>223.5744393700659</v>
+        <v>409.6168120477987</v>
       </c>
       <c r="P18" t="n">
         <v>331.2012793855346</v>
       </c>
       <c r="Q18" t="n">
-        <v>218.4803792452831</v>
+        <v>102.843347910286</v>
       </c>
       <c r="R18" t="n">
         <v>47.34253660377365</v>
@@ -9479,7 +9479,7 @@
         <v>10.53077703452832</v>
       </c>
       <c r="J21" t="n">
-        <v>60.72933541128936</v>
+        <v>131.1346767540252</v>
       </c>
       <c r="K21" t="n">
         <v>275.0438464930818</v>
@@ -9488,10 +9488,10 @@
         <v>385.6739591155975</v>
       </c>
       <c r="M21" t="n">
-        <v>368.6962349650029</v>
+        <v>484.3332662999999</v>
       </c>
       <c r="N21" t="n">
-        <v>498.5160693172957</v>
+        <v>312.4736966395628</v>
       </c>
       <c r="O21" t="n">
         <v>409.6168120477987</v>
@@ -9716,10 +9716,10 @@
         <v>10.53077703452832</v>
       </c>
       <c r="J24" t="n">
-        <v>131.1346767540252</v>
+        <v>60.72933541128936</v>
       </c>
       <c r="K24" t="n">
-        <v>275.0438464930818</v>
+        <v>159.4068151580847</v>
       </c>
       <c r="L24" t="n">
         <v>385.6739591155975</v>
@@ -9731,7 +9731,7 @@
         <v>498.5160693172957</v>
       </c>
       <c r="O24" t="n">
-        <v>223.5744393700659</v>
+        <v>409.6168120477987</v>
       </c>
       <c r="P24" t="n">
         <v>331.2012793855346</v>
@@ -9953,13 +9953,13 @@
         <v>10.53077703452832</v>
       </c>
       <c r="J27" t="n">
-        <v>131.1346767540252</v>
+        <v>60.72933541128936</v>
       </c>
       <c r="K27" t="n">
         <v>275.0438464930818</v>
       </c>
       <c r="L27" t="n">
-        <v>199.6315864378646</v>
+        <v>385.6739591155975</v>
       </c>
       <c r="M27" t="n">
         <v>484.3332662999999</v>
@@ -9974,7 +9974,7 @@
         <v>331.2012793855346</v>
       </c>
       <c r="Q27" t="n">
-        <v>218.4803792452831</v>
+        <v>102.843347910286</v>
       </c>
       <c r="R27" t="n">
         <v>47.34253660377365</v>
@@ -10190,13 +10190,13 @@
         <v>10.53077703452832</v>
       </c>
       <c r="J30" t="n">
-        <v>131.1346767540252</v>
+        <v>60.72933541128936</v>
       </c>
       <c r="K30" t="n">
         <v>275.0438464930818</v>
       </c>
       <c r="L30" t="n">
-        <v>199.6315864378646</v>
+        <v>385.6739591155975</v>
       </c>
       <c r="M30" t="n">
         <v>484.3332662999999</v>
@@ -10211,7 +10211,7 @@
         <v>331.2012793855346</v>
       </c>
       <c r="Q30" t="n">
-        <v>218.4803792452831</v>
+        <v>102.843347910286</v>
       </c>
       <c r="R30" t="n">
         <v>47.34253660377365</v>
@@ -10427,10 +10427,10 @@
         <v>10.53077703452832</v>
       </c>
       <c r="J33" t="n">
-        <v>131.1346767540252</v>
+        <v>60.72933541128936</v>
       </c>
       <c r="K33" t="n">
-        <v>275.0438464930818</v>
+        <v>159.4068151580847</v>
       </c>
       <c r="L33" t="n">
         <v>385.6739591155975</v>
@@ -10442,7 +10442,7 @@
         <v>498.5160693172957</v>
       </c>
       <c r="O33" t="n">
-        <v>223.5744393700659</v>
+        <v>409.6168120477987</v>
       </c>
       <c r="P33" t="n">
         <v>331.2012793855346</v>
@@ -10664,10 +10664,10 @@
         <v>10.53077703452832</v>
       </c>
       <c r="J36" t="n">
-        <v>131.1346767540252</v>
+        <v>60.72933541128936</v>
       </c>
       <c r="K36" t="n">
-        <v>89.00147381534887</v>
+        <v>275.0438464930818</v>
       </c>
       <c r="L36" t="n">
         <v>385.6739591155975</v>
@@ -10685,7 +10685,7 @@
         <v>331.2012793855346</v>
       </c>
       <c r="Q36" t="n">
-        <v>218.4803792452831</v>
+        <v>102.843347910286</v>
       </c>
       <c r="R36" t="n">
         <v>47.34253660377365</v>
@@ -10901,7 +10901,7 @@
         <v>10.53077703452832</v>
       </c>
       <c r="J39" t="n">
-        <v>131.1346767540252</v>
+        <v>60.72933541128936</v>
       </c>
       <c r="K39" t="n">
         <v>275.0438464930818</v>
@@ -10913,10 +10913,10 @@
         <v>484.3332662999999</v>
       </c>
       <c r="N39" t="n">
-        <v>498.5160693172957</v>
+        <v>382.8790379822985</v>
       </c>
       <c r="O39" t="n">
-        <v>223.5744393700659</v>
+        <v>409.6168120477987</v>
       </c>
       <c r="P39" t="n">
         <v>331.2012793855346</v>
@@ -11150,10 +11150,10 @@
         <v>484.3332662999999</v>
       </c>
       <c r="N42" t="n">
-        <v>498.5160693172957</v>
+        <v>312.4736966395628</v>
       </c>
       <c r="O42" t="n">
-        <v>223.5744393700659</v>
+        <v>409.6168120477987</v>
       </c>
       <c r="P42" t="n">
         <v>331.2012793855346</v>
@@ -11314,7 +11314,7 @@
         <v>396.0321885132552</v>
       </c>
       <c r="P44" t="n">
-        <v>334.6706564983421</v>
+        <v>334.6706564983419</v>
       </c>
       <c r="Q44" t="n">
         <v>220.8075902863009</v>
@@ -11378,7 +11378,7 @@
         <v>131.1346767540252</v>
       </c>
       <c r="K45" t="n">
-        <v>89.00147381534887</v>
+        <v>275.0438464930818</v>
       </c>
       <c r="L45" t="n">
         <v>385.6739591155975</v>
@@ -11387,7 +11387,7 @@
         <v>484.3332662999999</v>
       </c>
       <c r="N45" t="n">
-        <v>498.5160693172957</v>
+        <v>312.4736966395628</v>
       </c>
       <c r="O45" t="n">
         <v>409.6168120477987</v>
@@ -23257,22 +23257,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>383.716409991395</v>
+        <v>354.4719508534375</v>
       </c>
       <c r="C11" t="n">
-        <v>366.9850956789426</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>356.6047327545984</v>
       </c>
       <c r="E11" t="n">
         <v>383.1180357552875</v>
       </c>
       <c r="F11" t="n">
-        <v>407.2938634805408</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>413.6097194764729</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -23320,13 +23320,13 @@
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>301.3956783141187</v>
+        <v>350.5301170005546</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>370.8615991311694</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.6870717512358</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -23348,16 +23348,16 @@
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>81.68851577858734</v>
+        <v>143.5062320835493</v>
       </c>
       <c r="G12" t="n">
         <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>1.750113771095229</v>
       </c>
       <c r="I12" t="n">
-        <v>63.56783007605712</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -23415,7 +23415,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>69.4236534149176</v>
+        <v>111.6657891738537</v>
       </c>
       <c r="C13" t="n">
         <v>167.3365529312023</v>
@@ -23424,10 +23424,10 @@
         <v>149.0055665145194</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.9746241731992</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>146.1590214098045</v>
       </c>
       <c r="G13" t="n">
         <v>167.3311041893321</v>
@@ -23439,7 +23439,7 @@
         <v>136.9633875020681</v>
       </c>
       <c r="J13" t="n">
-        <v>49.35397375491781</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -23472,7 +23472,7 @@
         <v>225.9462130081922</v>
       </c>
       <c r="U13" t="n">
-        <v>286.0218075870219</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>252.9363510669392</v>
@@ -23494,25 +23494,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>383.716409991395</v>
       </c>
       <c r="C14" t="n">
-        <v>176.7093680426367</v>
+        <v>366.9850956789426</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>356.6047327545984</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>407.2938634805408</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>413.6097194764729</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>24.27821960710372</v>
       </c>
       <c r="I14" t="n">
         <v>157.2246747536534</v>
@@ -23542,28 +23542,28 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>63.64170646647294</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>177.493467653868</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>217.5149286494106</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>251.3781599023558</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>328.5332215225193</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>350.5301170005546</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>370.8615991311694</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.6870717512358</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -23582,7 +23582,7 @@
         <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>41.22751706926216</v>
       </c>
       <c r="F15" t="n">
         <v>0</v>
@@ -23591,7 +23591,7 @@
         <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>104.0288287853823</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -23639,7 +23639,7 @@
         <v>0</v>
       </c>
       <c r="X15" t="n">
-        <v>145.2563458546446</v>
+        <v>0</v>
       </c>
       <c r="Y15" t="n">
         <v>0</v>
@@ -23655,7 +23655,7 @@
         <v>180.0836914906838</v>
       </c>
       <c r="C16" t="n">
-        <v>167.3365529312023</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>149.0055665145194</v>
@@ -23700,10 +23700,10 @@
         <v>32.99521853687121</v>
       </c>
       <c r="R16" t="n">
-        <v>148.2796428708918</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>212.6245410698995</v>
       </c>
       <c r="T16" t="n">
         <v>225.9462130081922</v>
@@ -23715,7 +23715,7 @@
         <v>252.9363510669392</v>
       </c>
       <c r="W16" t="n">
-        <v>162.1965680177988</v>
+        <v>265.1882227499936</v>
       </c>
       <c r="X16" t="n">
         <v>226.1403599323093</v>
@@ -23734,25 +23734,25 @@
         <v>383.716409991395</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>366.9850956789426</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>356.6047327545984</v>
       </c>
       <c r="E17" t="n">
-        <v>383.1180357552875</v>
+        <v>327.9089813148079</v>
       </c>
       <c r="F17" t="n">
         <v>407.2938634805408</v>
       </c>
       <c r="G17" t="n">
-        <v>413.6097194764729</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>325.3930767845979</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>157.2246747536534</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23788,7 +23788,7 @@
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>251.3781599023558</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -23797,7 +23797,7 @@
         <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>23.53146288069291</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
         <v>386.6870717512358</v>
@@ -23813,7 +23813,7 @@
         <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>145.2563458546446</v>
+        <v>0</v>
       </c>
       <c r="D18" t="n">
         <v>0</v>
@@ -23879,7 +23879,7 @@
         <v>0</v>
       </c>
       <c r="Y18" t="n">
-        <v>0</v>
+        <v>145.2563458546445</v>
       </c>
     </row>
     <row r="19">
@@ -23889,7 +23889,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>180.0836914906838</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>167.3365529312023</v>
@@ -23901,7 +23901,7 @@
         <v>146.9746241731992</v>
       </c>
       <c r="F19" t="n">
-        <v>146.1590214098045</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>167.3311041893321</v>
@@ -23910,7 +23910,7 @@
         <v>156.6686349500177</v>
       </c>
       <c r="I19" t="n">
-        <v>136.9633875020681</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>49.35397375491781</v>
@@ -23943,22 +23943,22 @@
         <v>212.6245410698995</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>225.9462130081922</v>
       </c>
       <c r="U19" t="n">
         <v>286.0218075870219</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.9363510669392</v>
       </c>
       <c r="W19" t="n">
-        <v>142.4327834360088</v>
+        <v>286.0925768874155</v>
       </c>
       <c r="X19" t="n">
         <v>226.1403599323093</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.7486738677682</v>
+        <v>59.41241674378648</v>
       </c>
     </row>
     <row r="20">
@@ -23971,16 +23971,16 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>366.9850956789426</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>383.1180357552875</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>407.2938634805408</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
         <v>413.6097194764729</v>
@@ -24019,22 +24019,22 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>69.40532110536894</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>217.5149286494106</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>251.3781599023558</v>
       </c>
       <c r="V20" t="n">
         <v>328.5332215225193</v>
       </c>
       <c r="W20" t="n">
-        <v>94.54012396963481</v>
+        <v>350.5301170005546</v>
       </c>
       <c r="X20" t="n">
-        <v>370.8615991311694</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -24068,7 +24068,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>63.56783007605712</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -24107,13 +24107,13 @@
         <v>0</v>
       </c>
       <c r="V21" t="n">
-        <v>0</v>
+        <v>145.2563458546444</v>
       </c>
       <c r="W21" t="n">
         <v>0</v>
       </c>
       <c r="X21" t="n">
-        <v>81.68851577858739</v>
+        <v>0</v>
       </c>
       <c r="Y21" t="n">
         <v>0</v>
@@ -24126,7 +24126,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>180.0836914906838</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>167.3365529312023</v>
@@ -24141,10 +24141,10 @@
         <v>146.1590214098045</v>
       </c>
       <c r="G22" t="n">
-        <v>167.3311041893321</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>156.6686349500177</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>136.9633875020681</v>
@@ -24174,13 +24174,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>148.2796428708918</v>
       </c>
       <c r="S22" t="n">
         <v>212.6245410698995</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>225.9462130081922</v>
       </c>
       <c r="U22" t="n">
         <v>286.0218075870219</v>
@@ -24189,13 +24189,13 @@
         <v>252.9363510669392</v>
       </c>
       <c r="W22" t="n">
-        <v>286.0925768874155</v>
+        <v>200.6288685277823</v>
       </c>
       <c r="X22" t="n">
         <v>226.1403599323093</v>
       </c>
       <c r="Y22" t="n">
-        <v>3.427390757185378</v>
+        <v>218.7486738677682</v>
       </c>
     </row>
     <row r="23">
@@ -24211,19 +24211,19 @@
         <v>366.9850956789426</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>356.6047327545984</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>383.1180357552875</v>
       </c>
       <c r="F23" t="n">
-        <v>407.2938634805408</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>413.6097194764729</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>325.3930767845979</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>157.2246747536534</v>
@@ -24253,10 +24253,10 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>63.64170646647294</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>177.493467653868</v>
       </c>
       <c r="T23" t="n">
         <v>0</v>
@@ -24265,16 +24265,16 @@
         <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>328.5332215225193</v>
       </c>
       <c r="W23" t="n">
         <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>39.66440295703768</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>386.6870717512358</v>
+        <v>263.2569702971389</v>
       </c>
     </row>
     <row r="24">
@@ -24293,16 +24293,16 @@
         <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>41.22751706926216</v>
+        <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>143.5062320835493</v>
       </c>
       <c r="G24" t="n">
         <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>104.0288287853823</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -24332,7 +24332,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>1.750113771095307</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -24363,10 +24363,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>180.0836914906838</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.3365529312023</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>149.0055665145194</v>
@@ -24381,7 +24381,7 @@
         <v>167.3311041893321</v>
       </c>
       <c r="H25" t="n">
-        <v>156.6686349500177</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>136.9633875020681</v>
@@ -24408,16 +24408,16 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>0</v>
+        <v>32.99521853687121</v>
       </c>
       <c r="R25" t="n">
         <v>148.2796428708918</v>
       </c>
       <c r="S25" t="n">
-        <v>67.77228895619294</v>
+        <v>212.6245410698995</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>107.492734853558</v>
       </c>
       <c r="U25" t="n">
         <v>286.0218075870219</v>
@@ -24432,7 +24432,7 @@
         <v>226.1403599323093</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.7486738677682</v>
       </c>
     </row>
     <row r="26">
@@ -24442,7 +24442,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>383.716409991395</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
@@ -24451,19 +24451,19 @@
         <v>356.6047327545984</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>383.1180357552875</v>
       </c>
       <c r="F26" t="n">
-        <v>407.2938634805408</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>84.33436822908806</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>325.3930767845979</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>157.2246747536534</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24496,22 +24496,22 @@
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>217.5149286494106</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>251.3781599023558</v>
       </c>
       <c r="V26" t="n">
         <v>328.5332215225193</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>350.5301170005546</v>
       </c>
       <c r="X26" t="n">
-        <v>370.8615991311694</v>
+        <v>145.5370028312826</v>
       </c>
       <c r="Y26" t="n">
-        <v>386.6870717512358</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -24533,13 +24533,13 @@
         <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>41.22751706926218</v>
+        <v>0</v>
       </c>
       <c r="G27" t="n">
         <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>104.0288287853823</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
@@ -24572,7 +24572,7 @@
         <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>0</v>
+        <v>145.2563458546447</v>
       </c>
       <c r="T27" t="n">
         <v>0</v>
@@ -24600,7 +24600,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>24.90877225932428</v>
+        <v>180.0836914906838</v>
       </c>
       <c r="C28" t="n">
         <v>167.3365529312023</v>
@@ -24612,7 +24612,7 @@
         <v>146.9746241731992</v>
       </c>
       <c r="F28" t="n">
-        <v>146.1590214098045</v>
+        <v>28.45791463845013</v>
       </c>
       <c r="G28" t="n">
         <v>167.3311041893321</v>
@@ -24645,10 +24645,10 @@
         <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>0</v>
+        <v>32.99521853687121</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>148.2796428708918</v>
       </c>
       <c r="S28" t="n">
         <v>212.6245410698995</v>
@@ -24669,7 +24669,7 @@
         <v>226.1403599323093</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.7486738677682</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24679,22 +24679,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>301.2040271753942</v>
       </c>
       <c r="C29" t="n">
-        <v>366.9850956789426</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>182.2255438670478</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>383.1180357552875</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
         <v>407.2938634805408</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>413.6097194764729</v>
       </c>
       <c r="H29" t="n">
         <v>325.3930767845979</v>
@@ -24733,7 +24733,7 @@
         <v>177.493467653868</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>217.5149286494106</v>
       </c>
       <c r="U29" t="n">
         <v>251.3781599023558</v>
@@ -24776,10 +24776,10 @@
         <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>81.6885157785874</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>63.56783007605712</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -24827,7 +24827,7 @@
         <v>0</v>
       </c>
       <c r="Y30" t="n">
-        <v>0</v>
+        <v>145.2563458546445</v>
       </c>
     </row>
     <row r="31">
@@ -24837,7 +24837,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>180.0836914906838</v>
       </c>
       <c r="C31" t="n">
         <v>167.3365529312023</v>
@@ -24882,7 +24882,7 @@
         <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>0</v>
+        <v>32.99521853687121</v>
       </c>
       <c r="R31" t="n">
         <v>148.2796428708918</v>
@@ -24891,16 +24891,16 @@
         <v>212.6245410698995</v>
       </c>
       <c r="T31" t="n">
-        <v>225.9462130081922</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>129.4947111549779</v>
+        <v>286.0218075870219</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>286.0925768874155</v>
+        <v>142.4327834360088</v>
       </c>
       <c r="X31" t="n">
         <v>226.1403599323093</v>
@@ -24919,7 +24919,7 @@
         <v>383.716409991395</v>
       </c>
       <c r="C32" t="n">
-        <v>366.9850956789426</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
         <v>356.6047327545984</v>
@@ -24931,13 +24931,13 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>11.4634171637897</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>325.3930767845979</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>157.2246747536534</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24967,19 +24967,19 @@
         <v>63.64170646647294</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>177.493467653868</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>217.5149286494106</v>
       </c>
       <c r="U32" t="n">
         <v>251.3781599023558</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>328.5332215225193</v>
       </c>
       <c r="W32" t="n">
-        <v>350.5301170005546</v>
+        <v>173.6054140484337</v>
       </c>
       <c r="X32" t="n">
         <v>370.8615991311694</v>
@@ -24995,7 +24995,7 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0</v>
+        <v>145.2563458546446</v>
       </c>
       <c r="C33" t="n">
         <v>0</v>
@@ -25007,7 +25007,7 @@
         <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>143.5062320835493</v>
+        <v>0</v>
       </c>
       <c r="G33" t="n">
         <v>0</v>
@@ -25016,7 +25016,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.750113771095215</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -25074,13 +25074,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>180.0836914906838</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.3365529312023</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>149.0055665145194</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>146.9746241731992</v>
@@ -25119,16 +25119,16 @@
         <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>0</v>
+        <v>32.99521853687121</v>
       </c>
       <c r="R34" t="n">
         <v>148.2796428708918</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>212.6245410698995</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>225.9462130081922</v>
       </c>
       <c r="U34" t="n">
         <v>286.0218075870219</v>
@@ -25137,13 +25137,13 @@
         <v>252.9363510669392</v>
       </c>
       <c r="W34" t="n">
-        <v>135.1161919758403</v>
+        <v>286.0925768874155</v>
       </c>
       <c r="X34" t="n">
         <v>226.1403599323093</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.7486738677682</v>
+        <v>92.63212727763569</v>
       </c>
     </row>
     <row r="35">
@@ -25165,7 +25165,7 @@
         <v>383.1180357552875</v>
       </c>
       <c r="F35" t="n">
-        <v>407.2938634805408</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
@@ -25174,7 +25174,7 @@
         <v>325.3930767845979</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>157.2246747536534</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25201,7 +25201,7 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>63.64170646647294</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -25213,16 +25213,16 @@
         <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>193.8213939620409</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
         <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>120.8452174041657</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>386.6870717512358</v>
       </c>
     </row>
     <row r="36">
@@ -25244,10 +25244,10 @@
         <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>9.899293949320253</v>
+        <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>135.3570519053243</v>
+        <v>0</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -25298,7 +25298,7 @@
         <v>0</v>
       </c>
       <c r="X36" t="n">
-        <v>0</v>
+        <v>145.2563458546446</v>
       </c>
       <c r="Y36" t="n">
         <v>0</v>
@@ -25311,19 +25311,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>180.0836914906838</v>
+        <v>136.6439335637367</v>
       </c>
       <c r="C37" t="n">
         <v>167.3365529312023</v>
       </c>
       <c r="D37" t="n">
-        <v>149.0055665145194</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.9746241731992</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>146.1590214098045</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>167.3311041893321</v>
@@ -25332,7 +25332,7 @@
         <v>156.6686349500177</v>
       </c>
       <c r="I37" t="n">
-        <v>136.9633875020681</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>49.35397375491781</v>
@@ -25356,19 +25356,19 @@
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>0</v>
+        <v>32.99521853687121</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>148.2796428708918</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>212.6245410698995</v>
       </c>
       <c r="T37" t="n">
         <v>225.9462130081922</v>
       </c>
       <c r="U37" t="n">
-        <v>57.37885253814633</v>
+        <v>286.0218075870219</v>
       </c>
       <c r="V37" t="n">
         <v>252.9363510669392</v>
@@ -25393,25 +25393,25 @@
         <v>383.716409991395</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>366.9850956789426</v>
       </c>
       <c r="D38" t="n">
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>383.1180357552875</v>
       </c>
       <c r="F38" t="n">
-        <v>271.7732162164858</v>
+        <v>407.2938634805408</v>
       </c>
       <c r="G38" t="n">
         <v>413.6097194764729</v>
       </c>
       <c r="H38" t="n">
-        <v>325.3930767845979</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>157.2246747536534</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25438,28 +25438,28 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>63.64170646647294</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>217.5149286494106</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>328.5332215225193</v>
+        <v>87.46988062170075</v>
       </c>
       <c r="W38" t="n">
         <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>370.8615991311694</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>386.6870717512358</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -25481,7 +25481,7 @@
         <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>81.68851577858734</v>
+        <v>0</v>
       </c>
       <c r="G39" t="n">
         <v>0</v>
@@ -25490,7 +25490,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>63.56783007605712</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -25523,7 +25523,7 @@
         <v>0</v>
       </c>
       <c r="T39" t="n">
-        <v>0</v>
+        <v>145.2563458546447</v>
       </c>
       <c r="U39" t="n">
         <v>0</v>
@@ -25563,7 +25563,7 @@
         <v>146.1590214098045</v>
       </c>
       <c r="G40" t="n">
-        <v>167.3311041893321</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>156.6686349500177</v>
@@ -25593,7 +25593,7 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>0</v>
+        <v>32.99521853687121</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -25611,7 +25611,7 @@
         <v>252.9363510669392</v>
       </c>
       <c r="W40" t="n">
-        <v>57.44962183853997</v>
+        <v>191.7855074910009</v>
       </c>
       <c r="X40" t="n">
         <v>226.1403599323093</v>
@@ -25630,25 +25630,25 @@
         <v>383.716409991395</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>366.9850956789426</v>
       </c>
       <c r="D41" t="n">
-        <v>356.6047327545984</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>383.1180357552875</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>407.2938634805408</v>
       </c>
       <c r="G41" t="n">
         <v>413.6097194764729</v>
       </c>
       <c r="H41" t="n">
-        <v>325.3930767845979</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>157.2246747536534</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25675,28 +25675,28 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>63.64170646647294</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>106.8085123613682</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>328.5332215225193</v>
       </c>
       <c r="W41" t="n">
-        <v>350.5301170005546</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>386.6870717512358</v>
+        <v>133.6762625022449</v>
       </c>
     </row>
     <row r="42">
@@ -25715,7 +25715,7 @@
         <v>0</v>
       </c>
       <c r="E42" t="n">
-        <v>41.22751706926216</v>
+        <v>0</v>
       </c>
       <c r="F42" t="n">
         <v>0</v>
@@ -25724,10 +25724,10 @@
         <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>104.0288287853823</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>63.56783007605712</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -25754,7 +25754,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>53.33473024000174</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -25769,7 +25769,7 @@
         <v>0</v>
       </c>
       <c r="W42" t="n">
-        <v>0</v>
+        <v>28.35378553858533</v>
       </c>
       <c r="X42" t="n">
         <v>0</v>
@@ -25785,7 +25785,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>180.0836914906838</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>167.3365529312023</v>
@@ -25797,16 +25797,16 @@
         <v>146.9746241731992</v>
       </c>
       <c r="F43" t="n">
-        <v>146.1590214098045</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>167.3311041893321</v>
       </c>
       <c r="H43" t="n">
-        <v>156.6686349500177</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>136.9633875020681</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>49.35397375491781</v>
@@ -25830,25 +25830,25 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>0</v>
+        <v>32.99521853687121</v>
       </c>
       <c r="R43" t="n">
-        <v>148.2796428708918</v>
+        <v>145.6120206969279</v>
       </c>
       <c r="S43" t="n">
         <v>212.6245410698995</v>
       </c>
       <c r="T43" t="n">
-        <v>208.5134584929626</v>
+        <v>225.9462130081922</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.0218075870219</v>
       </c>
       <c r="V43" t="n">
         <v>252.9363510669392</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>286.0925768874155</v>
       </c>
       <c r="X43" t="n">
         <v>226.1403599323093</v>
@@ -25864,16 +25864,16 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>383.716409991395</v>
       </c>
       <c r="C44" t="n">
         <v>366.9850956789426</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>356.6047327545984</v>
       </c>
       <c r="E44" t="n">
-        <v>383.1180357552875</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
         <v>407.2938634805408</v>
@@ -25882,7 +25882,7 @@
         <v>413.6097194764729</v>
       </c>
       <c r="H44" t="n">
-        <v>325.3930767845979</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>157.2246747536534</v>
@@ -25918,13 +25918,13 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>217.5149286494106</v>
+        <v>2.964890749281125</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>145.7932138284976</v>
+        <v>328.5332215225193</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
@@ -25946,7 +25946,7 @@
         <v>0</v>
       </c>
       <c r="C45" t="n">
-        <v>0</v>
+        <v>9.899293949320196</v>
       </c>
       <c r="D45" t="n">
         <v>0</v>
@@ -25958,7 +25958,7 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>135.3570519053243</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -25991,7 +25991,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>53.33473024000174</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -26003,7 +26003,7 @@
         <v>0</v>
       </c>
       <c r="V45" t="n">
-        <v>91.92161561464249</v>
+        <v>0</v>
       </c>
       <c r="W45" t="n">
         <v>0</v>
@@ -26034,10 +26034,10 @@
         <v>146.9746241731992</v>
       </c>
       <c r="F46" t="n">
-        <v>146.1590214098045</v>
+        <v>129.5185221506901</v>
       </c>
       <c r="G46" t="n">
-        <v>167.3311041893321</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>156.6686349500177</v>
@@ -26073,7 +26073,7 @@
         <v>148.2796428708918</v>
       </c>
       <c r="S46" t="n">
-        <v>34.7770704193218</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26091,7 +26091,7 @@
         <v>226.1403599323093</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.7486738677682</v>
       </c>
     </row>
   </sheetData>
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>566989.3281650465</v>
+        <v>566989.3281650464</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>566989.3281650464</v>
+        <v>566989.3281650465</v>
       </c>
     </row>
     <row r="11">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>566989.3281650466</v>
+        <v>566989.3281650464</v>
       </c>
     </row>
     <row r="13">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>566989.3281650465</v>
+        <v>566989.3281650464</v>
       </c>
     </row>
     <row r="16">
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>610439.5564612021</v>
+      </c>
+      <c r="C2" t="n">
+        <v>610439.5564612024</v>
+      </c>
+      <c r="D2" t="n">
         <v>610439.5564612023</v>
-      </c>
-      <c r="C2" t="n">
-        <v>610439.5564612022</v>
-      </c>
-      <c r="D2" t="n">
-        <v>610439.5564612024</v>
       </c>
       <c r="E2" t="n">
         <v>411521.9655491572</v>
       </c>
       <c r="F2" t="n">
+        <v>411521.9655491573</v>
+      </c>
+      <c r="G2" t="n">
         <v>411521.9655491571</v>
       </c>
-      <c r="G2" t="n">
+      <c r="H2" t="n">
+        <v>411521.9655491572</v>
+      </c>
+      <c r="I2" t="n">
+        <v>411521.9655491571</v>
+      </c>
+      <c r="J2" t="n">
+        <v>411521.9655491571</v>
+      </c>
+      <c r="K2" t="n">
+        <v>411521.9655491572</v>
+      </c>
+      <c r="L2" t="n">
         <v>411521.9655491573</v>
-      </c>
-      <c r="H2" t="n">
-        <v>411521.9655491574</v>
-      </c>
-      <c r="I2" t="n">
-        <v>411521.9655491572</v>
-      </c>
-      <c r="J2" t="n">
-        <v>411521.9655491573</v>
-      </c>
-      <c r="K2" t="n">
-        <v>411521.9655491574</v>
-      </c>
-      <c r="L2" t="n">
-        <v>411521.9655491572</v>
       </c>
       <c r="M2" t="n">
         <v>411521.9655491571</v>
       </c>
       <c r="N2" t="n">
-        <v>411521.9655491572</v>
+        <v>411521.9655491571</v>
       </c>
       <c r="O2" t="n">
-        <v>411521.9655491572</v>
+        <v>411521.9655491574</v>
       </c>
       <c r="P2" t="n">
-        <v>411521.9655491572</v>
+        <v>411521.9655491571</v>
       </c>
     </row>
     <row r="3">
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>91918.81236773985</v>
+        <v>91918.81236773984</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>89616.02429853742</v>
+        <v>89616.02429853741</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,10 +26417,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>284530.026457239</v>
+        <v>284530.0264572389</v>
       </c>
       <c r="C4" t="n">
-        <v>284530.026457239</v>
+        <v>284530.0264572389</v>
       </c>
       <c r="D4" t="n">
         <v>284530.0264572389</v>
@@ -26429,10 +26429,10 @@
         <v>18775.56330614278</v>
       </c>
       <c r="F4" t="n">
+        <v>18775.56330614278</v>
+      </c>
+      <c r="G4" t="n">
         <v>18775.56330614277</v>
-      </c>
-      <c r="G4" t="n">
-        <v>18775.56330614278</v>
       </c>
       <c r="H4" t="n">
         <v>18775.56330614278</v>
@@ -26441,19 +26441,19 @@
         <v>18775.56330614278</v>
       </c>
       <c r="J4" t="n">
-        <v>18775.56330614278</v>
+        <v>18775.56330614277</v>
       </c>
       <c r="K4" t="n">
-        <v>18775.56330614278</v>
+        <v>18775.56330614277</v>
       </c>
       <c r="L4" t="n">
         <v>18775.56330614278</v>
       </c>
       <c r="M4" t="n">
-        <v>18775.56330614278</v>
+        <v>18775.56330614277</v>
       </c>
       <c r="N4" t="n">
-        <v>18775.56330614278</v>
+        <v>18775.56330614277</v>
       </c>
       <c r="O4" t="n">
         <v>18775.56330614278</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>183686.6621498541</v>
+        <v>183686.6621498539</v>
       </c>
       <c r="C6" t="n">
-        <v>275605.4745175938</v>
+        <v>275605.4745175941</v>
       </c>
       <c r="D6" t="n">
-        <v>275605.4745175941</v>
+        <v>275605.474517594</v>
       </c>
       <c r="E6" t="n">
-        <v>-8735.288759340532</v>
+        <v>-15365.87512307541</v>
       </c>
       <c r="F6" t="n">
-        <v>347454.1411273395</v>
+        <v>340823.5547636049</v>
       </c>
       <c r="G6" t="n">
-        <v>347454.1411273397</v>
+        <v>340823.5547636047</v>
       </c>
       <c r="H6" t="n">
-        <v>347454.1411273398</v>
+        <v>340823.5547636048</v>
       </c>
       <c r="I6" t="n">
-        <v>347454.1411273396</v>
+        <v>340823.5547636047</v>
       </c>
       <c r="J6" t="n">
-        <v>275689.4286392535</v>
+        <v>269058.8422755184</v>
       </c>
       <c r="K6" t="n">
-        <v>347454.1411273399</v>
+        <v>340823.5547636048</v>
       </c>
       <c r="L6" t="n">
-        <v>347454.1411273396</v>
+        <v>340823.5547636049</v>
       </c>
       <c r="M6" t="n">
-        <v>257838.1168288022</v>
+        <v>251207.5304650673</v>
       </c>
       <c r="N6" t="n">
-        <v>347454.1411273397</v>
+        <v>340823.5547636047</v>
       </c>
       <c r="O6" t="n">
-        <v>347454.1411273397</v>
+        <v>340823.5547636049</v>
       </c>
       <c r="P6" t="n">
-        <v>347454.1411273397</v>
+        <v>340823.5547636047</v>
       </c>
     </row>
   </sheetData>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>359.6090925448124</v>
+        <v>359.6090925448123</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27387,22 +27387,22 @@
         <v>356.6047327545984</v>
       </c>
       <c r="E2" t="n">
-        <v>383.1180357552875</v>
+        <v>108.834228413685</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>133.0100561389384</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>140.5709580622284</v>
       </c>
       <c r="H2" t="n">
-        <v>338.1439033881534</v>
+        <v>96.55472588167004</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>205.224307868124</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>0.6592771345624158</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27426,10 +27426,10 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>141.8508227008771</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>205.8649517235392</v>
       </c>
       <c r="T2" t="n">
         <v>222.9651171964204</v>
@@ -27441,13 +27441,13 @@
         <v>328.5332215225193</v>
       </c>
       <c r="W2" t="n">
-        <v>136.1213131223407</v>
+        <v>350.5301170005546</v>
       </c>
       <c r="X2" t="n">
         <v>370.8615991311694</v>
       </c>
       <c r="Y2" t="n">
-        <v>112.4032644096333</v>
+        <v>386.6870717512358</v>
       </c>
     </row>
     <row r="3">
@@ -27457,7 +27457,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>144.5543816072967</v>
+        <v>145.2934483255617</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -27466,7 +27466,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>156.0334337071738</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27505,7 +27505,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>94.69497976109122</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>168.9616139056444</v>
@@ -27520,7 +27520,7 @@
         <v>231.9087310396551</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>249.98934675</v>
       </c>
       <c r="X3" t="n">
         <v>204.4616296084783</v>
@@ -27590,7 +27590,7 @@
         <v>222.3574069614225</v>
       </c>
       <c r="T4" t="n">
-        <v>49.4193393498993</v>
+        <v>228.3324659915077</v>
       </c>
       <c r="U4" t="n">
         <v>286.0522703910642</v>
@@ -27599,7 +27599,7 @@
         <v>252.9363510669392</v>
       </c>
       <c r="W4" t="n">
-        <v>286.0925768874155</v>
+        <v>107.1794502458072</v>
       </c>
       <c r="X4" t="n">
         <v>226.1403599323093</v>
@@ -27615,7 +27615,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>109.4326026497926</v>
+        <v>383.716409991395</v>
       </c>
       <c r="C5" t="n">
         <v>366.9850956789426</v>
@@ -27624,13 +27624,13 @@
         <v>356.6047327545984</v>
       </c>
       <c r="E5" t="n">
-        <v>229.8155907354488</v>
+        <v>215.6201024661804</v>
       </c>
       <c r="F5" t="n">
         <v>133.0100561389384</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>140.5709580622284</v>
       </c>
       <c r="H5" t="n">
         <v>338.1439033881534</v>
@@ -27639,7 +27639,7 @@
         <v>205.224307868124</v>
       </c>
       <c r="J5" t="n">
-        <v>0.6592771345624158</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -27697,25 +27697,25 @@
         <v>165.3721256103448</v>
       </c>
       <c r="C6" t="n">
-        <v>171.025583927401</v>
+        <v>117.1350739937807</v>
       </c>
       <c r="D6" t="n">
-        <v>146.1124235746456</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>156.0334337071738</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>143.5062320835493</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>136.0232102050423</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>110.4625155221328</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>86.50354346547167</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27742,13 +27742,13 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>94.69497976109122</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>168.9616139056444</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>198.3825319082687</v>
       </c>
       <c r="U6" t="n">
         <v>224.6571770672012</v>
@@ -27760,10 +27760,10 @@
         <v>249.98934675</v>
       </c>
       <c r="X6" t="n">
-        <v>37.64003811043287</v>
+        <v>204.4616296084783</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>203.671151418586</v>
       </c>
     </row>
     <row r="7">
@@ -27855,7 +27855,7 @@
         <v>383.716409991395</v>
       </c>
       <c r="C8" t="n">
-        <v>92.70128833734015</v>
+        <v>366.9850956789426</v>
       </c>
       <c r="D8" t="n">
         <v>82.3209254129959</v>
@@ -27864,13 +27864,13 @@
         <v>383.1180357552875</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>133.0100561389384</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>173.92486503191</v>
       </c>
       <c r="H8" t="n">
-        <v>338.1439033881534</v>
+        <v>63.86009604655089</v>
       </c>
       <c r="I8" t="n">
         <v>205.224307868124</v>
@@ -27900,7 +27900,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>141.8508227008771</v>
       </c>
       <c r="S8" t="n">
         <v>205.8649517235392</v>
@@ -27912,7 +27912,7 @@
         <v>251.4777635765444</v>
       </c>
       <c r="V8" t="n">
-        <v>251.6027727358473</v>
+        <v>328.5332215225193</v>
       </c>
       <c r="W8" t="n">
         <v>350.5301170005546</v>
@@ -27921,7 +27921,7 @@
         <v>370.8615991311694</v>
       </c>
       <c r="Y8" t="n">
-        <v>112.4032644096333</v>
+        <v>386.6870717512358</v>
       </c>
     </row>
     <row r="9">
@@ -27931,16 +27931,16 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>165.3721256103448</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>171.025583927401</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>146.1124235746456</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>156.0334337071738</v>
+        <v>56.00104507792953</v>
       </c>
       <c r="F9" t="n">
         <v>143.5062320835493</v>
@@ -27985,22 +27985,22 @@
         <v>168.9616139056444</v>
       </c>
       <c r="T9" t="n">
-        <v>16.72123722124337</v>
+        <v>198.3825319082687</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>224.6571770672012</v>
       </c>
       <c r="V9" t="n">
-        <v>231.9087310396551</v>
+        <v>0</v>
       </c>
       <c r="W9" t="n">
         <v>0</v>
       </c>
       <c r="X9" t="n">
-        <v>0</v>
+        <v>204.4616296084783</v>
       </c>
       <c r="Y9" t="n">
-        <v>0</v>
+        <v>203.671151418586</v>
       </c>
     </row>
     <row r="10">
@@ -28025,7 +28025,7 @@
         <v>146.1590214098045</v>
       </c>
       <c r="G10" t="n">
-        <v>167.8895889301081</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>161.6340720089168</v>
@@ -28037,7 +28037,7 @@
         <v>88.83884492777894</v>
       </c>
       <c r="K10" t="n">
-        <v>14.77440971783335</v>
+        <v>3.750872006333063</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -28076,7 +28076,7 @@
         <v>286.0925768874155</v>
       </c>
       <c r="X10" t="n">
-        <v>47.22723329070089</v>
+        <v>226.1403599323093</v>
       </c>
       <c r="Y10" t="n">
         <v>218.7486738677682</v>
@@ -34783,16 +34783,16 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>250.5834388302202</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>271.1434367385833</v>
+        <v>251.1414018543382</v>
       </c>
       <c r="N3" t="n">
         <v>274.2838073416025</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>270.5854737144654</v>
       </c>
       <c r="P3" t="n">
         <v>200.5762321565626</v>
@@ -34938,7 +34938,7 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>122.5236243051552</v>
+        <v>122.5236243051553</v>
       </c>
       <c r="L5" t="n">
         <v>204.4954085367308</v>
@@ -34956,7 +34956,7 @@
         <v>109.2184856369541</v>
       </c>
       <c r="Q5" t="n">
-        <v>4.059542658712616</v>
+        <v>4.059542658712711</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35014,19 +35014,19 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>7.467990754025152</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>140.6484434930818</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
         <v>250.5834388302202</v>
       </c>
       <c r="M6" t="n">
-        <v>134.1933268726387</v>
+        <v>274.2838073416025</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>90.0241032895551</v>
       </c>
       <c r="O6" t="n">
         <v>270.5854737144654</v>
@@ -35035,7 +35035,7 @@
         <v>200.5762321565626</v>
       </c>
       <c r="Q6" t="n">
-        <v>81.99814951141209</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35251,25 +35251,25 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>7.467990754025152</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>140.6484434930818</v>
       </c>
       <c r="L9" t="n">
         <v>250.5834388302202</v>
       </c>
       <c r="M9" t="n">
-        <v>274.2838073416025</v>
+        <v>141.6613176266638</v>
       </c>
       <c r="N9" t="n">
-        <v>274.2838073416025</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>270.5854737144654</v>
       </c>
       <c r="P9" t="n">
-        <v>197.4358615535434</v>
+        <v>200.5762321565626</v>
       </c>
       <c r="Q9" t="n">
         <v>81.99814951141209</v>
@@ -35488,7 +35488,7 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>70.40534134273582</v>
+        <v>51.3956407860353</v>
       </c>
       <c r="K12" t="n">
         <v>248.2184001629003</v>
@@ -35500,7 +35500,7 @@
         <v>514.5419032905515</v>
       </c>
       <c r="N12" t="n">
-        <v>357.6721984766432</v>
+        <v>543.714571154376</v>
       </c>
       <c r="O12" t="n">
         <v>429.0814793495699</v>
@@ -35509,7 +35509,7 @@
         <v>327.7832499334201</v>
       </c>
       <c r="Q12" t="n">
-        <v>167.0326721210326</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35728,7 +35728,7 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>248.2184001629003</v>
+        <v>132.5813688279032</v>
       </c>
       <c r="L15" t="n">
         <v>395.2245205299612</v>
@@ -35746,7 +35746,7 @@
         <v>327.7832499334201</v>
       </c>
       <c r="Q15" t="n">
-        <v>51.39564078603548</v>
+        <v>167.0326721210326</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35962,7 +35962,7 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>70.40534134273582</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>248.2184001629003</v>
@@ -35977,13 +35977,13 @@
         <v>543.714571154376</v>
       </c>
       <c r="O18" t="n">
-        <v>243.0391066718371</v>
+        <v>429.0814793495699</v>
       </c>
       <c r="P18" t="n">
         <v>327.7832499334201</v>
       </c>
       <c r="Q18" t="n">
-        <v>167.0326721210326</v>
+        <v>51.39564078603548</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36199,7 +36199,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>70.40534134273582</v>
       </c>
       <c r="K21" t="n">
         <v>248.2184001629003</v>
@@ -36208,10 +36208,10 @@
         <v>395.2245205299612</v>
       </c>
       <c r="M21" t="n">
-        <v>398.9048719555545</v>
+        <v>514.5419032905515</v>
       </c>
       <c r="N21" t="n">
-        <v>543.714571154376</v>
+        <v>357.6721984766432</v>
       </c>
       <c r="O21" t="n">
         <v>429.0814793495699</v>
@@ -36436,10 +36436,10 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>70.40534134273582</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>248.2184001629003</v>
+        <v>132.5813688279032</v>
       </c>
       <c r="L24" t="n">
         <v>395.2245205299612</v>
@@ -36451,7 +36451,7 @@
         <v>543.714571154376</v>
       </c>
       <c r="O24" t="n">
-        <v>243.0391066718371</v>
+        <v>429.0814793495699</v>
       </c>
       <c r="P24" t="n">
         <v>327.7832499334201</v>
@@ -36673,13 +36673,13 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>70.40534134273582</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
         <v>248.2184001629003</v>
       </c>
       <c r="L27" t="n">
-        <v>209.1821478522283</v>
+        <v>395.2245205299612</v>
       </c>
       <c r="M27" t="n">
         <v>514.5419032905515</v>
@@ -36694,7 +36694,7 @@
         <v>327.7832499334201</v>
       </c>
       <c r="Q27" t="n">
-        <v>167.0326721210326</v>
+        <v>51.39564078603548</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36910,13 +36910,13 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>70.40534134273582</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>248.2184001629003</v>
       </c>
       <c r="L30" t="n">
-        <v>209.1821478522283</v>
+        <v>395.2245205299612</v>
       </c>
       <c r="M30" t="n">
         <v>514.5419032905515</v>
@@ -36931,7 +36931,7 @@
         <v>327.7832499334201</v>
       </c>
       <c r="Q30" t="n">
-        <v>167.0326721210326</v>
+        <v>51.39564078603548</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37147,10 +37147,10 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>70.40534134273582</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>248.2184001629003</v>
+        <v>132.5813688279032</v>
       </c>
       <c r="L33" t="n">
         <v>395.2245205299612</v>
@@ -37162,7 +37162,7 @@
         <v>543.714571154376</v>
       </c>
       <c r="O33" t="n">
-        <v>243.0391066718371</v>
+        <v>429.0814793495699</v>
       </c>
       <c r="P33" t="n">
         <v>327.7832499334201</v>
@@ -37384,10 +37384,10 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>70.40534134273582</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>62.17602748516736</v>
+        <v>248.2184001629003</v>
       </c>
       <c r="L36" t="n">
         <v>395.2245205299612</v>
@@ -37405,7 +37405,7 @@
         <v>327.7832499334201</v>
       </c>
       <c r="Q36" t="n">
-        <v>167.0326721210326</v>
+        <v>51.39564078603548</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37621,7 +37621,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>70.40534134273582</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
         <v>248.2184001629003</v>
@@ -37633,10 +37633,10 @@
         <v>514.5419032905515</v>
       </c>
       <c r="N39" t="n">
-        <v>543.714571154376</v>
+        <v>428.0775398193789</v>
       </c>
       <c r="O39" t="n">
-        <v>243.0391066718371</v>
+        <v>429.0814793495699</v>
       </c>
       <c r="P39" t="n">
         <v>327.7832499334201</v>
@@ -37870,10 +37870,10 @@
         <v>514.5419032905515</v>
       </c>
       <c r="N42" t="n">
-        <v>543.714571154376</v>
+        <v>357.6721984766432</v>
       </c>
       <c r="O42" t="n">
-        <v>243.0391066718371</v>
+        <v>429.0814793495699</v>
       </c>
       <c r="P42" t="n">
         <v>327.7832499334201</v>
@@ -38034,7 +38034,7 @@
         <v>381.4626643702566</v>
       </c>
       <c r="P44" t="n">
-        <v>288.2576462984488</v>
+        <v>288.2576462984487</v>
       </c>
       <c r="Q44" t="n">
         <v>138.5104960466975</v>
@@ -38098,7 +38098,7 @@
         <v>70.40534134273582</v>
       </c>
       <c r="K45" t="n">
-        <v>62.17602748516736</v>
+        <v>248.2184001629003</v>
       </c>
       <c r="L45" t="n">
         <v>395.2245205299612</v>
@@ -38107,7 +38107,7 @@
         <v>514.5419032905515</v>
       </c>
       <c r="N45" t="n">
-        <v>543.714571154376</v>
+        <v>357.6721984766432</v>
       </c>
       <c r="O45" t="n">
         <v>429.0814793495699</v>
